--- a/++++++รายรัย-รายจ่าย 2566.xlsx
+++ b/++++++รายรัย-รายจ่าย 2566.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\Code_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F16E15E-D908-4B3B-ABE6-51CA26EF69A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9211DA1E-22DD-4792-AECC-EB48901810EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{C2DE035B-6225-47A1-B5D0-465EF96E10B4}"/>
   </bookViews>
@@ -1407,6 +1407,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="17" fillId="22" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="25" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1488,7 +1489,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="22" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
@@ -1503,14 +1503,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1908,59 +1901,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="226">
+      <c r="A1" s="227">
         <v>243256</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="228" t="s">
+      <c r="S1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="231"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="I2" s="232" t="s">
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="I2" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -2016,10 +2009,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="233" t="s">
+      <c r="M3" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="233"/>
+      <c r="N3" s="234"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -2771,14 +2764,14 @@
       <c r="S17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="234">
+      <c r="T17" s="235">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16</f>
         <v>227207</v>
       </c>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="237"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -3237,20 +3230,20 @@
       <c r="B35" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="237">
+      <c r="C35" s="238">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>26497.78</v>
       </c>
-      <c r="D35" s="237"/>
+      <c r="D35" s="238"/>
       <c r="I35" s="22"/>
       <c r="J35" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="238">
+      <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
         <v>24874.481599999999</v>
       </c>
-      <c r="L35" s="239"/>
+      <c r="L35" s="240"/>
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
@@ -3269,19 +3262,19 @@
       <c r="B37" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="240">
+      <c r="C37" s="241">
         <f>C35-K35</f>
         <v>1623.2983999999997</v>
       </c>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
       <c r="M37" s="146"/>
       <c r="N37" s="27"/>
       <c r="O37" s="147"/>
@@ -3781,7 +3774,7 @@
       <c r="A60" s="177"/>
       <c r="B60" s="177"/>
       <c r="C60" s="193"/>
-      <c r="D60" s="243">
+      <c r="D60" s="244">
         <f>C60+C61+C62</f>
         <v>0</v>
       </c>
@@ -3802,7 +3795,7 @@
       <c r="A61" s="177"/>
       <c r="B61" s="177"/>
       <c r="C61" s="193"/>
-      <c r="D61" s="243"/>
+      <c r="D61" s="244"/>
       <c r="E61" s="193"/>
       <c r="F61" s="193"/>
       <c r="J61" s="11"/>
@@ -3817,7 +3810,7 @@
       <c r="A62" s="177"/>
       <c r="B62" s="177"/>
       <c r="C62" s="193"/>
-      <c r="D62" s="244"/>
+      <c r="D62" s="245"/>
       <c r="E62" s="193"/>
       <c r="F62" s="193"/>
       <c r="J62" s="11"/>
@@ -3880,11 +3873,11 @@
       <c r="B66" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="224">
+      <c r="C66" s="225">
         <f>C65-E65</f>
         <v>916.90000000000009</v>
       </c>
-      <c r="D66" s="225"/>
+      <c r="D66" s="226"/>
       <c r="E66" s="205"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -3922,7 +3915,7 @@
     <mergeCell ref="D60:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3968,59 +3961,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="226">
+      <c r="A1" s="227">
         <v>243287</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="228" t="s">
+      <c r="S1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="231"/>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="I2" s="232" t="s">
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="I2" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -4079,10 +4072,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="233" t="s">
+      <c r="M3" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="233"/>
+      <c r="N3" s="234"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -4886,15 +4879,15 @@
       <c r="S17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="234">
+      <c r="T17" s="235">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>263723</v>
       </c>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="235"/>
-      <c r="Y17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="237"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -5356,20 +5349,20 @@
       <c r="B35" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="237">
+      <c r="C35" s="238">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>26497.78</v>
       </c>
-      <c r="D35" s="237"/>
+      <c r="D35" s="238"/>
       <c r="I35" s="22"/>
       <c r="J35" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="238">
+      <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
         <v>26318.941600000002</v>
       </c>
-      <c r="L35" s="239"/>
+      <c r="L35" s="240"/>
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
@@ -5388,19 +5381,19 @@
       <c r="B37" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="240">
+      <c r="C37" s="241">
         <f>C35-K35</f>
         <v>178.83839999999691</v>
       </c>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
       <c r="M37" s="146"/>
       <c r="N37" s="27"/>
       <c r="O37" s="147"/>
@@ -5865,7 +5858,7 @@
       <c r="A60" s="177"/>
       <c r="B60" s="177"/>
       <c r="C60" s="193"/>
-      <c r="D60" s="243">
+      <c r="D60" s="244">
         <f>C60+C61+C62</f>
         <v>0</v>
       </c>
@@ -5883,7 +5876,7 @@
       <c r="A61" s="177"/>
       <c r="B61" s="177"/>
       <c r="C61" s="193"/>
-      <c r="D61" s="243"/>
+      <c r="D61" s="244"/>
       <c r="E61" s="193"/>
       <c r="F61" s="193"/>
       <c r="J61" s="11"/>
@@ -5898,7 +5891,7 @@
       <c r="A62" s="177"/>
       <c r="B62" s="177"/>
       <c r="C62" s="193"/>
-      <c r="D62" s="244"/>
+      <c r="D62" s="245"/>
       <c r="E62" s="193"/>
       <c r="F62" s="193"/>
       <c r="J62" s="11"/>
@@ -5961,11 +5954,11 @@
       <c r="B66" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="224">
+      <c r="C66" s="225">
         <f>C65-E65</f>
         <v>799.57</v>
       </c>
-      <c r="D66" s="225"/>
+      <c r="D66" s="226"/>
       <c r="E66" s="205"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -6003,7 +5996,7 @@
     <mergeCell ref="D60:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6050,59 +6043,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="226">
+      <c r="A1" s="227">
         <v>243315</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="228" t="s">
+      <c r="S1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="231"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="I2" s="232" t="s">
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="I2" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -6161,10 +6154,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="233" t="s">
+      <c r="M3" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="233"/>
+      <c r="N3" s="234"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -6945,15 +6938,15 @@
       <c r="S17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="234">
+      <c r="T17" s="235">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="235"/>
-      <c r="Y17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="237"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -7435,20 +7428,20 @@
       <c r="B35" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="237">
+      <c r="C35" s="238">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>37396.78</v>
       </c>
-      <c r="D35" s="237"/>
+      <c r="D35" s="238"/>
       <c r="I35" s="22"/>
       <c r="J35" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="238">
+      <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
         <v>31005.719000000001</v>
       </c>
-      <c r="L35" s="239"/>
+      <c r="L35" s="240"/>
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
@@ -7458,14 +7451,14 @@
       </c>
       <c r="Q35" s="96"/>
       <c r="R35" s="96"/>
-      <c r="S35" s="228" t="s">
+      <c r="S35" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="229"/>
-      <c r="U35" s="229"/>
-      <c r="V35" s="229"/>
-      <c r="W35" s="229"/>
-      <c r="X35" s="230"/>
+      <c r="T35" s="230"/>
+      <c r="U35" s="230"/>
+      <c r="V35" s="230"/>
+      <c r="W35" s="230"/>
+      <c r="X35" s="231"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18" x14ac:dyDescent="0.25">
@@ -7497,19 +7490,19 @@
       <c r="B37" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="240">
+      <c r="C37" s="241">
         <f>C35-K35</f>
         <v>6391.0609999999979</v>
       </c>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
       <c r="M37" s="146"/>
       <c r="N37" s="27"/>
       <c r="O37" s="147"/>
@@ -7925,15 +7918,15 @@
       <c r="S51" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="234">
+      <c r="T51" s="235">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>3000</v>
       </c>
-      <c r="U51" s="235"/>
-      <c r="V51" s="235"/>
-      <c r="W51" s="235"/>
-      <c r="X51" s="235"/>
-      <c r="Y51" s="236"/>
+      <c r="U51" s="236"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="236"/>
+      <c r="X51" s="236"/>
+      <c r="Y51" s="237"/>
     </row>
     <row r="52" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39">
@@ -7984,14 +7977,14 @@
         <f t="shared" si="7"/>
         <v>922.80000000000007</v>
       </c>
-      <c r="S53" s="245" t="s">
+      <c r="S53" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="T53" s="246"/>
-      <c r="U53" s="246"/>
-      <c r="V53" s="246"/>
-      <c r="W53" s="246"/>
-      <c r="X53" s="247"/>
+      <c r="T53" s="247"/>
+      <c r="U53" s="247"/>
+      <c r="V53" s="247"/>
+      <c r="W53" s="247"/>
+      <c r="X53" s="248"/>
       <c r="Y53" s="219">
         <v>15600</v>
       </c>
@@ -8014,14 +8007,14 @@
         <f t="shared" si="7"/>
         <v>562.08000000000004</v>
       </c>
-      <c r="S54" s="245" t="s">
+      <c r="S54" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="T54" s="246"/>
-      <c r="U54" s="246"/>
-      <c r="V54" s="246"/>
-      <c r="W54" s="246"/>
-      <c r="X54" s="247"/>
+      <c r="T54" s="247"/>
+      <c r="U54" s="247"/>
+      <c r="V54" s="247"/>
+      <c r="W54" s="247"/>
+      <c r="X54" s="248"/>
       <c r="Y54" s="219">
         <v>18925</v>
       </c>
@@ -8032,14 +8025,14 @@
       <c r="C55" s="66">
         <v>215</v>
       </c>
-      <c r="S55" s="248" t="s">
+      <c r="S55" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="T55" s="248"/>
-      <c r="U55" s="248"/>
-      <c r="V55" s="248"/>
-      <c r="W55" s="248"/>
-      <c r="X55" s="248"/>
+      <c r="T55" s="249"/>
+      <c r="U55" s="249"/>
+      <c r="V55" s="249"/>
+      <c r="W55" s="249"/>
+      <c r="X55" s="249"/>
       <c r="Y55" s="218">
         <f>Y52-(Y53+Y54)</f>
         <v>248834</v>
@@ -8114,11 +8107,11 @@
       <c r="B63" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="224">
+      <c r="C63" s="225">
         <f>C62-E62</f>
         <v>3818.04</v>
       </c>
-      <c r="D63" s="225"/>
+      <c r="D63" s="226"/>
       <c r="E63" s="205"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -8160,7 +8153,7 @@
     <mergeCell ref="S55:X55"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8209,59 +8202,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="226">
+      <c r="A1" s="227">
         <v>243344</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="228" t="s">
+      <c r="S1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="231"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="I2" s="232" t="s">
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="I2" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -8320,10 +8313,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="233" t="s">
+      <c r="M3" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="233"/>
+      <c r="N3" s="234"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -9105,15 +9098,15 @@
       <c r="S17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="234">
+      <c r="T17" s="235">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="235"/>
-      <c r="Y17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="237"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -9619,20 +9612,20 @@
       <c r="B35" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="237">
+      <c r="C35" s="238">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>37363.78</v>
       </c>
-      <c r="D35" s="237"/>
+      <c r="D35" s="238"/>
       <c r="I35" s="22"/>
       <c r="J35" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="238">
+      <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
         <v>33204.270000000004</v>
       </c>
-      <c r="L35" s="239"/>
+      <c r="L35" s="240"/>
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
@@ -9642,14 +9635,14 @@
       </c>
       <c r="Q35" s="96"/>
       <c r="R35" s="96"/>
-      <c r="S35" s="228" t="s">
+      <c r="S35" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="229"/>
-      <c r="U35" s="229"/>
-      <c r="V35" s="229"/>
-      <c r="W35" s="229"/>
-      <c r="X35" s="230"/>
+      <c r="T35" s="230"/>
+      <c r="U35" s="230"/>
+      <c r="V35" s="230"/>
+      <c r="W35" s="230"/>
+      <c r="X35" s="231"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18" x14ac:dyDescent="0.25">
@@ -9681,19 +9674,19 @@
       <c r="B37" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="240">
+      <c r="C37" s="241">
         <f>C35-K35</f>
         <v>4159.5099999999948</v>
       </c>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
       <c r="M37" s="146"/>
       <c r="N37" s="27"/>
       <c r="O37" s="147"/>
@@ -10109,15 +10102,15 @@
       <c r="S51" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="234">
+      <c r="T51" s="235">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>6000</v>
       </c>
-      <c r="U51" s="235"/>
-      <c r="V51" s="235"/>
-      <c r="W51" s="235"/>
-      <c r="X51" s="235"/>
-      <c r="Y51" s="236"/>
+      <c r="U51" s="236"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="236"/>
+      <c r="X51" s="236"/>
+      <c r="Y51" s="237"/>
     </row>
     <row r="52" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39">
@@ -10274,11 +10267,11 @@
       <c r="B63" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="224">
+      <c r="C63" s="225">
         <f>C62-E62</f>
         <v>3674.25</v>
       </c>
-      <c r="D63" s="225"/>
+      <c r="D63" s="226"/>
       <c r="E63" s="205"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -10302,6 +10295,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -10309,15 +10308,9 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10365,59 +10358,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="226">
+      <c r="A1" s="227">
         <v>243374</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="228" t="s">
+      <c r="S1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="231"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="I2" s="232" t="s">
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="I2" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -10476,10 +10469,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="233" t="s">
+      <c r="M3" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="233"/>
+      <c r="N3" s="234"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -11266,15 +11259,15 @@
       <c r="S17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="234">
+      <c r="T17" s="235">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="235"/>
-      <c r="Y17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="237"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -11780,20 +11773,20 @@
       <c r="B35" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="237">
+      <c r="C35" s="238">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>41060.78</v>
       </c>
-      <c r="D35" s="237"/>
+      <c r="D35" s="238"/>
       <c r="I35" s="22"/>
       <c r="J35" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="238">
+      <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
         <v>33111.590000000004</v>
       </c>
-      <c r="L35" s="239"/>
+      <c r="L35" s="240"/>
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
@@ -11803,14 +11796,14 @@
       </c>
       <c r="Q35" s="96"/>
       <c r="R35" s="96"/>
-      <c r="S35" s="228" t="s">
+      <c r="S35" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="229"/>
-      <c r="U35" s="229"/>
-      <c r="V35" s="229"/>
-      <c r="W35" s="229"/>
-      <c r="X35" s="230"/>
+      <c r="T35" s="230"/>
+      <c r="U35" s="230"/>
+      <c r="V35" s="230"/>
+      <c r="W35" s="230"/>
+      <c r="X35" s="231"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18" x14ac:dyDescent="0.25">
@@ -11842,19 +11835,19 @@
       <c r="B37" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="240">
+      <c r="C37" s="241">
         <f>C35-K35</f>
         <v>7949.1899999999951</v>
       </c>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
       <c r="M37" s="146"/>
       <c r="N37" s="27"/>
       <c r="O37" s="147"/>
@@ -12083,7 +12076,7 @@
         <f>C45*B45</f>
         <v>658.56000000000006</v>
       </c>
-      <c r="G45" s="249">
+      <c r="G45" s="250">
         <f>C45+C46+C47+C48</f>
         <v>243.88</v>
       </c>
@@ -12115,7 +12108,7 @@
         <f>C46*B46</f>
         <v>751.68000000000006</v>
       </c>
-      <c r="G46" s="250"/>
+      <c r="G46" s="251"/>
       <c r="S46" s="31">
         <v>10</v>
       </c>
@@ -12144,7 +12137,7 @@
         <f t="shared" ref="F47:F49" si="4">C47*B47</f>
         <v>900</v>
       </c>
-      <c r="G47" s="250"/>
+      <c r="G47" s="251"/>
       <c r="S47" s="31">
         <v>11</v>
       </c>
@@ -12173,7 +12166,7 @@
         <f t="shared" si="4"/>
         <v>616.31999999999994</v>
       </c>
-      <c r="G48" s="250"/>
+      <c r="G48" s="251"/>
       <c r="S48" s="31">
         <v>12</v>
       </c>
@@ -12282,15 +12275,15 @@
       <c r="S51" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="234">
+      <c r="T51" s="235">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>9000</v>
       </c>
-      <c r="U51" s="235"/>
-      <c r="V51" s="235"/>
-      <c r="W51" s="235"/>
-      <c r="X51" s="235"/>
-      <c r="Y51" s="236"/>
+      <c r="U51" s="236"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="236"/>
+      <c r="X51" s="236"/>
+      <c r="Y51" s="237"/>
     </row>
     <row r="52" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="221">
@@ -12521,11 +12514,11 @@
       <c r="B63" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="224">
+      <c r="C63" s="225">
         <f>C62-E62</f>
         <v>1693.5</v>
       </c>
-      <c r="D63" s="225"/>
+      <c r="D63" s="226"/>
       <c r="E63" s="205"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -12588,6 +12581,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -12596,15 +12595,9 @@
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="G45:G48"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12620,7 +12613,7 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12652,59 +12645,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="226">
+      <c r="A1" s="227">
         <v>243405</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="228" t="s">
+      <c r="S1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="231"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="I2" s="232" t="s">
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="I2" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -12763,10 +12756,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="233" t="s">
+      <c r="M3" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="233"/>
+      <c r="N3" s="234"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -13197,8 +13190,8 @@
         <v>70</v>
       </c>
       <c r="C11" s="60">
-        <f>D11*3</f>
-        <v>3198</v>
+        <f>D11*4</f>
+        <v>4264</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>83</v>
@@ -13367,9 +13360,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="74"/>
-      <c r="C14" s="28">
-        <v>950.3</v>
-      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="22"/>
       <c r="H14" s="21"/>
       <c r="I14" s="40">
@@ -13555,15 +13546,15 @@
       <c r="S17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="234">
+      <c r="T17" s="235">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="235"/>
-      <c r="Y17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="237"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -13980,7 +13971,7 @@
       <c r="J30" s="215" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="251">
+      <c r="K30" s="224">
         <v>325.89999999999998</v>
       </c>
       <c r="L30" s="129" t="s">
@@ -14079,20 +14070,20 @@
       <c r="B35" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="237">
+      <c r="C35" s="238">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
-        <v>40945.08</v>
-      </c>
-      <c r="D35" s="237"/>
+        <v>41060.78</v>
+      </c>
+      <c r="D35" s="238"/>
       <c r="I35" s="22"/>
       <c r="J35" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="238">
+      <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
         <v>31395.170000000002</v>
       </c>
-      <c r="L35" s="239"/>
+      <c r="L35" s="240"/>
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
@@ -14102,14 +14093,14 @@
       </c>
       <c r="Q35" s="96"/>
       <c r="R35" s="96"/>
-      <c r="S35" s="228" t="s">
+      <c r="S35" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="229"/>
-      <c r="U35" s="229"/>
-      <c r="V35" s="229"/>
-      <c r="W35" s="229"/>
-      <c r="X35" s="230"/>
+      <c r="T35" s="230"/>
+      <c r="U35" s="230"/>
+      <c r="V35" s="230"/>
+      <c r="W35" s="230"/>
+      <c r="X35" s="231"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18" x14ac:dyDescent="0.25">
@@ -14141,19 +14132,19 @@
       <c r="B37" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="240">
+      <c r="C37" s="241">
         <f>C35-K35</f>
-        <v>9549.91</v>
-      </c>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
+        <v>9665.6099999999969</v>
+      </c>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
       <c r="M37" s="146"/>
       <c r="N37" s="27"/>
       <c r="O37" s="147"/>
@@ -14377,14 +14368,14 @@
         <v>63.21</v>
       </c>
       <c r="D45" s="66">
-        <f t="shared" ref="D45:D57" si="3">(B45-A45)*C45</f>
+        <f t="shared" ref="D45" si="3">(B45-A45)*C45</f>
         <v>126.42</v>
       </c>
       <c r="F45" s="66">
         <f>C45*B45</f>
         <v>189.63</v>
       </c>
-      <c r="G45" s="249">
+      <c r="G45" s="250">
         <f>C45+C46+C47+C48</f>
         <v>256.55999999999995</v>
       </c>
@@ -14408,7 +14399,7 @@
       <c r="C46" s="66">
         <v>36.549999999999997</v>
       </c>
-      <c r="G46" s="250"/>
+      <c r="G46" s="251"/>
       <c r="S46" s="31">
         <v>10</v>
       </c>
@@ -14429,7 +14420,7 @@
       <c r="C47" s="66">
         <v>70.83</v>
       </c>
-      <c r="G47" s="250"/>
+      <c r="G47" s="251"/>
       <c r="S47" s="31">
         <v>11</v>
       </c>
@@ -14450,7 +14441,7 @@
       <c r="C48" s="66">
         <v>85.97</v>
       </c>
-      <c r="G48" s="250"/>
+      <c r="G48" s="251"/>
       <c r="S48" s="31">
         <v>12</v>
       </c>
@@ -14541,15 +14532,15 @@
       <c r="S51" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="234">
+      <c r="T51" s="235">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>12000</v>
       </c>
-      <c r="U51" s="235"/>
-      <c r="V51" s="235"/>
-      <c r="W51" s="235"/>
-      <c r="X51" s="235"/>
-      <c r="Y51" s="236"/>
+      <c r="U51" s="236"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="236"/>
+      <c r="X51" s="236"/>
+      <c r="Y51" s="237"/>
     </row>
     <row r="52" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39">
@@ -14707,11 +14698,11 @@
       <c r="B63" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="224">
+      <c r="C63" s="225">
         <f>C62-E62</f>
         <v>2187.1799999999998</v>
       </c>
-      <c r="D63" s="225"/>
+      <c r="D63" s="226"/>
       <c r="E63" s="205"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -14794,6 +14785,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
@@ -14802,15 +14799,9 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="G45:G48"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14858,59 +14849,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="226">
+      <c r="A1" s="227">
         <v>243405</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="227" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="228" t="s">
+      <c r="S1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="231"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="I2" s="232" t="s">
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="I2" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -14969,10 +14960,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="233" t="s">
+      <c r="M3" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="233"/>
+      <c r="N3" s="234"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -15759,15 +15750,15 @@
       <c r="S17" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="234">
+      <c r="T17" s="235">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="235"/>
-      <c r="Y17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="237"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -16273,20 +16264,20 @@
       <c r="B35" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="237">
+      <c r="C35" s="238">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>36994.78</v>
       </c>
-      <c r="D35" s="237"/>
+      <c r="D35" s="238"/>
       <c r="I35" s="22"/>
       <c r="J35" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="238">
+      <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
         <v>29069.27</v>
       </c>
-      <c r="L35" s="239"/>
+      <c r="L35" s="240"/>
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
@@ -16296,14 +16287,14 @@
       </c>
       <c r="Q35" s="96"/>
       <c r="R35" s="96"/>
-      <c r="S35" s="228" t="s">
+      <c r="S35" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="229"/>
-      <c r="U35" s="229"/>
-      <c r="V35" s="229"/>
-      <c r="W35" s="229"/>
-      <c r="X35" s="230"/>
+      <c r="T35" s="230"/>
+      <c r="U35" s="230"/>
+      <c r="V35" s="230"/>
+      <c r="W35" s="230"/>
+      <c r="X35" s="231"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18" x14ac:dyDescent="0.25">
@@ -16335,19 +16326,19 @@
       <c r="B37" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="240">
+      <c r="C37" s="241">
         <f>C35-K35</f>
         <v>7925.5099999999984</v>
       </c>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
       <c r="M37" s="146"/>
       <c r="N37" s="27"/>
       <c r="O37" s="147"/>
@@ -16571,14 +16562,14 @@
         <v>63.21</v>
       </c>
       <c r="D45" s="66">
-        <f t="shared" ref="D45:D57" si="3">(B45-A45)*C45</f>
+        <f t="shared" ref="D45" si="3">(B45-A45)*C45</f>
         <v>126.42</v>
       </c>
       <c r="F45" s="66">
         <f>C45*B45</f>
         <v>189.63</v>
       </c>
-      <c r="G45" s="249">
+      <c r="G45" s="250">
         <f>C45+C46+C47+C48</f>
         <v>256.55999999999995</v>
       </c>
@@ -16602,7 +16593,7 @@
       <c r="C46" s="66">
         <v>36.549999999999997</v>
       </c>
-      <c r="G46" s="250"/>
+      <c r="G46" s="251"/>
       <c r="S46" s="31">
         <v>10</v>
       </c>
@@ -16623,7 +16614,7 @@
       <c r="C47" s="66">
         <v>70.83</v>
       </c>
-      <c r="G47" s="250"/>
+      <c r="G47" s="251"/>
       <c r="S47" s="31">
         <v>11</v>
       </c>
@@ -16644,7 +16635,7 @@
       <c r="C48" s="66">
         <v>85.97</v>
       </c>
-      <c r="G48" s="250"/>
+      <c r="G48" s="251"/>
       <c r="S48" s="31">
         <v>12</v>
       </c>
@@ -16735,15 +16726,15 @@
       <c r="S51" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="234">
+      <c r="T51" s="235">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>12000</v>
       </c>
-      <c r="U51" s="235"/>
-      <c r="V51" s="235"/>
-      <c r="W51" s="235"/>
-      <c r="X51" s="235"/>
-      <c r="Y51" s="236"/>
+      <c r="U51" s="236"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="236"/>
+      <c r="X51" s="236"/>
+      <c r="Y51" s="237"/>
     </row>
     <row r="52" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39">
@@ -16901,11 +16892,11 @@
       <c r="B63" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="224">
+      <c r="C63" s="225">
         <f>C62-E62</f>
         <v>2187.1799999999998</v>
       </c>
-      <c r="D63" s="225"/>
+      <c r="D63" s="226"/>
       <c r="E63" s="205"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -16988,6 +16979,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="K35:L35"/>
@@ -16996,12 +16993,6 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/++++++รายรัย-รายจ่าย 2566.xlsx
+++ b/++++++รายรัย-รายจ่าย 2566.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Github\Code_Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Code_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9211DA1E-22DD-4792-AECC-EB48901810EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33963C-207A-4253-A8C0-9F61A9C8F9D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{C2DE035B-6225-47A1-B5D0-465EF96E10B4}"/>
   </bookViews>
@@ -19,7 +19,8 @@
     <sheet name="04" sheetId="5" r:id="rId4"/>
     <sheet name="05" sheetId="6" r:id="rId5"/>
     <sheet name="06" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="07" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="86">
   <si>
     <t>*สรุปทุกสิ้นเดือน เหลือเงินไว้ใช้เดือนต่อไป</t>
   </si>
@@ -898,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1489,6 +1490,15 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
@@ -1503,7 +1513,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3915,7 +3932,7 @@
     <mergeCell ref="D60:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5996,7 +6013,7 @@
     <mergeCell ref="D60:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8153,7 +8170,7 @@
     <mergeCell ref="S55:X55"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10295,12 +10312,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -10308,9 +10319,15 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12581,12 +12598,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -12595,9 +12606,15 @@
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="G45:G48"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12610,10 +12627,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4653DF7B-56E5-447B-97E4-63DDA6A9FE60}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13316,7 +13336,7 @@
       <c r="C13" s="66"/>
       <c r="D13"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="40">
+      <c r="I13" s="25">
         <v>10</v>
       </c>
       <c r="J13" s="71" t="s">
@@ -13476,7 +13496,7 @@
       <c r="C16" s="86"/>
       <c r="D16" s="87"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="40">
+      <c r="I16" s="25">
         <v>13</v>
       </c>
       <c r="J16" s="88" t="s">
@@ -13513,7 +13533,7 @@
       <c r="C17" s="28"/>
       <c r="D17" s="22"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="40">
+      <c r="I17" s="25">
         <v>14</v>
       </c>
       <c r="J17" s="92" t="s">
@@ -13686,14 +13706,14 @@
       </c>
       <c r="C22" s="16"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="40">
+      <c r="I22" s="25">
         <v>19</v>
       </c>
       <c r="J22" s="114" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="115">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L22" s="116" t="s">
         <v>46</v>
@@ -14081,7 +14101,7 @@
       </c>
       <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
-        <v>31395.170000000002</v>
+        <v>31495.170000000002</v>
       </c>
       <c r="L35" s="240"/>
       <c r="M35" s="26"/>
@@ -14134,7 +14154,7 @@
       </c>
       <c r="C37" s="241">
         <f>C35-K35</f>
-        <v>9665.6099999999969</v>
+        <v>9565.6099999999969</v>
       </c>
       <c r="D37" s="242"/>
       <c r="E37" s="242"/>
@@ -14785,12 +14805,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
@@ -14799,9 +14813,15 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="G45:G48"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14813,6 +14833,2195 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391C56E5-EC6E-4825-BAB5-D3FD64DAE331}">
+  <dimension ref="A1:AA80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="21.375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="2.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="144" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="15" customWidth="1"/>
+    <col min="19" max="19" width="13" style="11" customWidth="1"/>
+    <col min="20" max="21" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.125" style="11" customWidth="1"/>
+    <col min="26" max="27" width="15.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="227">
+        <v>243405</v>
+      </c>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="228" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="229" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="231"/>
+    </row>
+    <row r="2" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="232" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="I2" s="233" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="6">
+        <v>61</v>
+      </c>
+      <c r="U2" s="6">
+        <v>62</v>
+      </c>
+      <c r="V2" s="6">
+        <v>63</v>
+      </c>
+      <c r="W2" s="6">
+        <v>64</v>
+      </c>
+      <c r="X2" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="234" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="234"/>
+      <c r="O3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="15">
+        <v>1</v>
+      </c>
+      <c r="T3" s="16">
+        <f>9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="U3" s="16">
+        <f>9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="V3" s="16">
+        <f>9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="W3" s="16">
+        <f>6086/2</f>
+        <v>3043</v>
+      </c>
+      <c r="X3" s="16">
+        <f>6086/2</f>
+        <v>3043</v>
+      </c>
+      <c r="Y3" s="16">
+        <f>6086/2</f>
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19">
+        <v>32000</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="24">
+        <v>800</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31">
+        <v>2</v>
+      </c>
+      <c r="T4" s="16">
+        <f t="shared" ref="T4:V14" si="0">9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="U4" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V4" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W4" s="16">
+        <f t="shared" ref="W4:Y14" si="1">6086/2</f>
+        <v>3043</v>
+      </c>
+      <c r="X4" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y4" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22">
+        <v>2</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="34">
+        <v>200</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="31">
+        <v>3</v>
+      </c>
+      <c r="T5" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X5" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y5" s="16">
+        <f>6086/2+Z5</f>
+        <v>53066</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>50023</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22">
+        <v>3</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="34">
+        <v>750</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31">
+        <v>4</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y6" s="157"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="38">
+        <v>1069</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22">
+        <v>4</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="31">
+        <v>5</v>
+      </c>
+      <c r="T7" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U7" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X7" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y7" s="16"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="40">
+        <v>5</v>
+      </c>
+      <c r="J8" s="210"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="214"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="31">
+        <v>6</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X8" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y8" s="16"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>6</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="26">
+        <v>5</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="40">
+        <v>6</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="34">
+        <v>400</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="48">
+        <v>12</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="50">
+        <v>400</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="31">
+        <v>7</v>
+      </c>
+      <c r="T9" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X9" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y9" s="16"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="40">
+        <v>7</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="58">
+        <v>667</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="16">
+        <v>667</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="31">
+        <v>8</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y10" s="16"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="60">
+        <f>D11*0</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="62"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="40">
+        <v>8</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="64">
+        <v>3192</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="65">
+        <v>14</v>
+      </c>
+      <c r="N11" s="65">
+        <v>58</v>
+      </c>
+      <c r="O11" s="28">
+        <f>((N11-M11)+1)*K11</f>
+        <v>143640</v>
+      </c>
+      <c r="P11" s="28">
+        <f>M11*K11</f>
+        <v>44688</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>136961</v>
+      </c>
+      <c r="R11" s="51"/>
+      <c r="S11" s="31">
+        <v>9</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y11" s="16"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="66">
+        <v>500</v>
+      </c>
+      <c r="D12"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="40">
+        <v>9</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70">
+        <v>0</v>
+      </c>
+      <c r="N12" s="70">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="31">
+        <v>10</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y12" s="16"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="40">
+        <v>10</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="72">
+        <v>2000</v>
+      </c>
+      <c r="L13" s="73"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="31">
+        <v>11</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V13" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y13" s="16"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="40">
+        <v>11</v>
+      </c>
+      <c r="J14" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="76">
+        <v>500</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="77"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28">
+        <v>3857.81</v>
+      </c>
+      <c r="P14" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="78">
+        <f>O14-P14</f>
+        <v>3857.81</v>
+      </c>
+      <c r="R14" s="79">
+        <f>Q14*0.05</f>
+        <v>192.8905</v>
+      </c>
+      <c r="S14" s="31">
+        <v>12</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y14" s="16"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="22"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="40">
+        <v>12</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="81">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="85">
+        <f t="shared" ref="T15:Y15" si="2">SUM(T3:T14)</f>
+        <v>54150</v>
+      </c>
+      <c r="U15" s="85">
+        <f t="shared" si="2"/>
+        <v>54150</v>
+      </c>
+      <c r="V15" s="85">
+        <f t="shared" si="2"/>
+        <v>27075</v>
+      </c>
+      <c r="W15" s="85">
+        <f t="shared" si="2"/>
+        <v>36516</v>
+      </c>
+      <c r="X15" s="85">
+        <f t="shared" si="2"/>
+        <v>36516</v>
+      </c>
+      <c r="Y15" s="85">
+        <f t="shared" si="2"/>
+        <v>59152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="74"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="40">
+        <v>13</v>
+      </c>
+      <c r="J16" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="89">
+        <f>C62</f>
+        <v>820.18</v>
+      </c>
+      <c r="L16" s="90"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91">
+        <v>13000</v>
+      </c>
+      <c r="X16" s="91">
+        <v>5800</v>
+      </c>
+      <c r="Y16" s="91"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="74"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="40">
+        <v>14</v>
+      </c>
+      <c r="J17" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="93">
+        <v>2140</v>
+      </c>
+      <c r="L17" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="95">
+        <v>11</v>
+      </c>
+      <c r="N17" s="95">
+        <v>96</v>
+      </c>
+      <c r="O17" s="16">
+        <v>119837.12</v>
+      </c>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="96">
+        <f>O17+P17</f>
+        <v>119837.12</v>
+      </c>
+      <c r="R17" s="97">
+        <f>Q17*0.03</f>
+        <v>3595.1135999999997</v>
+      </c>
+      <c r="S17" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="235">
+        <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
+        <v>286359</v>
+      </c>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="237"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>15</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="40">
+        <v>15</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="99">
+        <v>4500</v>
+      </c>
+      <c r="L18" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="102">
+        <v>128228.72</v>
+      </c>
+      <c r="P18" s="24">
+        <v>30000</v>
+      </c>
+      <c r="Q18" s="78">
+        <v>148318.19</v>
+      </c>
+      <c r="R18" s="79">
+        <f>Q18*0.03</f>
+        <v>4449.5456999999997</v>
+      </c>
+      <c r="S18" s="103"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>16</v>
+      </c>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="40">
+        <v>16</v>
+      </c>
+      <c r="J19" s="88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="89">
+        <v>107</v>
+      </c>
+      <c r="L19" s="90"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>17</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="40">
+        <v>17</v>
+      </c>
+      <c r="J20" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="108">
+        <v>1069</v>
+      </c>
+      <c r="L20" s="109"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="40">
+        <v>18</v>
+      </c>
+      <c r="J21" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="111">
+        <v>0</v>
+      </c>
+      <c r="L21" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="113">
+        <v>29</v>
+      </c>
+      <c r="O21" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="40">
+        <v>19</v>
+      </c>
+      <c r="J22" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="115">
+        <v>500</v>
+      </c>
+      <c r="L22" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+    </row>
+    <row r="23" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="F23" s="32"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="40">
+        <v>20</v>
+      </c>
+      <c r="J23" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="217">
+        <v>1480</v>
+      </c>
+      <c r="L23" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="28">
+        <v>34571.199999999997</v>
+      </c>
+      <c r="P23" s="123">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="96">
+        <f>O23+P23</f>
+        <v>34571.199999999997</v>
+      </c>
+      <c r="R23" s="97">
+        <f>Q23*0.03</f>
+        <v>1037.136</v>
+      </c>
+      <c r="S23" s="103"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>21</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="40">
+        <v>21</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="16">
+        <f>2940/2</f>
+        <v>1470</v>
+      </c>
+      <c r="L24" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="15">
+        <v>14</v>
+      </c>
+      <c r="N24" s="15">
+        <v>60</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>22</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="40">
+        <v>22</v>
+      </c>
+      <c r="J25" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="128">
+        <v>415.79</v>
+      </c>
+      <c r="L25" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="130"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28">
+        <v>5019.97</v>
+      </c>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28">
+        <f>O25*0.05</f>
+        <v>250.99850000000004</v>
+      </c>
+      <c r="S25" s="103"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="40">
+        <v>23</v>
+      </c>
+      <c r="J26" s="215" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="216">
+        <f>882/2</f>
+        <v>441</v>
+      </c>
+      <c r="L26" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="17">
+        <v>5</v>
+      </c>
+      <c r="N26" s="17">
+        <v>10</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>24</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="40">
+        <v>24</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="16">
+        <v>5000</v>
+      </c>
+      <c r="M27" s="17">
+        <v>5</v>
+      </c>
+      <c r="N27" s="17">
+        <f>12*24</f>
+        <v>288</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>25</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="40">
+        <v>25</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="16">
+        <v>1400</v>
+      </c>
+      <c r="M28" s="26">
+        <v>4</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>26</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="40">
+        <v>26</v>
+      </c>
+      <c r="J29" s="215" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="220">
+        <v>950.3</v>
+      </c>
+      <c r="L29" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="26">
+        <v>4</v>
+      </c>
+      <c r="N29" s="26">
+        <v>10</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <v>27</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="80">
+        <v>27</v>
+      </c>
+      <c r="J30" s="215" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="224">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="L30" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="132">
+        <v>2</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O30" s="28"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+    </row>
+    <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <v>28</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="80">
+        <v>28</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="96"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22">
+        <v>29</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="104"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C33" s="16"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="134">
+        <v>30</v>
+      </c>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="139"/>
+      <c r="P33" s="140"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C34" s="16"/>
+      <c r="I34" s="22">
+        <v>31</v>
+      </c>
+      <c r="J34" s="105"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="96"/>
+    </row>
+    <row r="35" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="142" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="238">
+        <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
+        <v>36569</v>
+      </c>
+      <c r="D35" s="238"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="143" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="239">
+        <f>SUM(K4:K34)</f>
+        <v>30128.170000000002</v>
+      </c>
+      <c r="L35" s="240"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="34">
+        <f>P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="229" t="s">
+        <v>73</v>
+      </c>
+      <c r="T35" s="230"/>
+      <c r="U35" s="230"/>
+      <c r="V35" s="230"/>
+      <c r="W35" s="230"/>
+      <c r="X35" s="231"/>
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="18" x14ac:dyDescent="0.25">
+      <c r="I36" s="22"/>
+      <c r="P36" s="32"/>
+      <c r="S36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36" s="6">
+        <v>66</v>
+      </c>
+      <c r="U36" s="6">
+        <v>67</v>
+      </c>
+      <c r="V36" s="6">
+        <v>68</v>
+      </c>
+      <c r="W36" s="6">
+        <v>69</v>
+      </c>
+      <c r="X36" s="6">
+        <v>70</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="241">
+        <f>C35-K35</f>
+        <v>6440.8299999999981</v>
+      </c>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="243"/>
+      <c r="M37" s="146"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="147"/>
+      <c r="P37" s="32"/>
+      <c r="S37" s="15">
+        <v>1</v>
+      </c>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B38" s="148" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="149">
+        <v>0</v>
+      </c>
+      <c r="D38" s="150"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="152"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="16">
+        <f>K17+K18+K23+1000</f>
+        <v>9120</v>
+      </c>
+      <c r="Q38" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="31">
+        <v>2</v>
+      </c>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B39" s="153" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="85">
+        <f>D39+P35</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="154"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="46"/>
+      <c r="Q39" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" s="31">
+        <v>3</v>
+      </c>
+      <c r="T39" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B40" s="156" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="156">
+        <f>D40+E40+F40+G40+D41</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="157">
+        <v>0</v>
+      </c>
+      <c r="E40" s="158">
+        <v>0</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="159"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="160"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="27"/>
+      <c r="Q40" s="161" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="31">
+        <v>4</v>
+      </c>
+      <c r="T40" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="157"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B41" s="162" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="163">
+        <f>(C38+C40)-C39</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="158"/>
+      <c r="E41" s="154"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="46"/>
+      <c r="Q41" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S41" s="31">
+        <v>5</v>
+      </c>
+      <c r="T41" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="27"/>
+      <c r="Q42" s="15"/>
+      <c r="S42" s="31">
+        <v>6</v>
+      </c>
+      <c r="T42" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="167"/>
+      <c r="Q43" s="15"/>
+      <c r="S43" s="31">
+        <v>7</v>
+      </c>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="154" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="167"/>
+      <c r="Q44" s="15"/>
+      <c r="S44" s="31">
+        <v>8</v>
+      </c>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+    </row>
+    <row r="45" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="39">
+        <v>1</v>
+      </c>
+      <c r="B45" s="39">
+        <v>3</v>
+      </c>
+      <c r="C45" s="66">
+        <v>63.21</v>
+      </c>
+      <c r="D45" s="66">
+        <f t="shared" ref="D45" si="3">(B45-A45)*C45</f>
+        <v>126.42</v>
+      </c>
+      <c r="F45" s="66">
+        <f>C45*B45</f>
+        <v>189.63</v>
+      </c>
+      <c r="G45" s="250">
+        <f>C45+C46+C47+C48</f>
+        <v>256.55999999999995</v>
+      </c>
+      <c r="S45" s="31">
+        <v>9</v>
+      </c>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+    </row>
+    <row r="46" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="39">
+        <v>1</v>
+      </c>
+      <c r="B46" s="39">
+        <v>6</v>
+      </c>
+      <c r="C46" s="66">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="G46" s="251"/>
+      <c r="S46" s="31">
+        <v>10</v>
+      </c>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+    </row>
+    <row r="47" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="39">
+        <v>1</v>
+      </c>
+      <c r="B47" s="39">
+        <v>6</v>
+      </c>
+      <c r="C47" s="66">
+        <v>70.83</v>
+      </c>
+      <c r="G47" s="251"/>
+      <c r="S47" s="31">
+        <v>11</v>
+      </c>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+    </row>
+    <row r="48" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="39">
+        <v>1</v>
+      </c>
+      <c r="B48" s="39">
+        <v>6</v>
+      </c>
+      <c r="C48" s="66">
+        <v>85.97</v>
+      </c>
+      <c r="G48" s="251"/>
+      <c r="S48" s="31">
+        <v>12</v>
+      </c>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+    </row>
+    <row r="49" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="39">
+        <v>1</v>
+      </c>
+      <c r="B49" s="39">
+        <v>6</v>
+      </c>
+      <c r="C49" s="223">
+        <v>57.95</v>
+      </c>
+      <c r="D49" s="223"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="223"/>
+      <c r="S49" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" s="85">
+        <f t="shared" ref="T49:Y49" si="4">SUM(T37:T48)</f>
+        <v>12000</v>
+      </c>
+      <c r="U49" s="85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="39">
+        <v>2</v>
+      </c>
+      <c r="B50" s="39">
+        <v>6</v>
+      </c>
+      <c r="C50" s="223">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="D50" s="223"/>
+      <c r="E50" s="223"/>
+      <c r="F50" s="223"/>
+      <c r="S50" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="T50" s="91"/>
+      <c r="U50" s="91"/>
+      <c r="V50" s="91"/>
+      <c r="W50" s="91"/>
+      <c r="X50" s="91"/>
+      <c r="Y50" s="91"/>
+    </row>
+    <row r="51" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="39">
+        <v>2</v>
+      </c>
+      <c r="B51" s="39">
+        <v>6</v>
+      </c>
+      <c r="C51" s="223">
+        <v>34.17</v>
+      </c>
+      <c r="D51" s="223"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="223"/>
+      <c r="S51" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="235">
+        <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
+        <v>12000</v>
+      </c>
+      <c r="U51" s="236"/>
+      <c r="V51" s="236"/>
+      <c r="W51" s="236"/>
+      <c r="X51" s="236"/>
+      <c r="Y51" s="237"/>
+    </row>
+    <row r="52" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="39">
+        <v>2</v>
+      </c>
+      <c r="B52" s="39">
+        <v>3</v>
+      </c>
+      <c r="C52" s="223">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="D52" s="223"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="223"/>
+      <c r="S52" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="T52" s="218"/>
+      <c r="U52" s="218"/>
+      <c r="V52" s="218"/>
+      <c r="W52" s="218"/>
+      <c r="X52" s="218"/>
+      <c r="Y52" s="218">
+        <f>T17-T51</f>
+        <v>274359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="39">
+        <v>2</v>
+      </c>
+      <c r="B53" s="39">
+        <v>3</v>
+      </c>
+      <c r="C53" s="223">
+        <v>43.74</v>
+      </c>
+      <c r="D53" s="223"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="223"/>
+    </row>
+    <row r="54" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="39">
+        <v>2</v>
+      </c>
+      <c r="B54" s="39">
+        <v>3</v>
+      </c>
+      <c r="C54" s="66">
+        <v>37.93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="39">
+        <v>2</v>
+      </c>
+      <c r="B55" s="39">
+        <v>6</v>
+      </c>
+      <c r="C55" s="66">
+        <v>64.739999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="39">
+        <v>5</v>
+      </c>
+      <c r="B56" s="39">
+        <v>12</v>
+      </c>
+      <c r="C56" s="66">
+        <v>54.88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="39">
+        <v>5</v>
+      </c>
+      <c r="B57" s="39">
+        <v>12</v>
+      </c>
+      <c r="C57" s="66">
+        <v>62.64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="39">
+        <v>6</v>
+      </c>
+      <c r="B58" s="39">
+        <v>12</v>
+      </c>
+      <c r="C58" s="66">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="39">
+        <v>9</v>
+      </c>
+      <c r="B59" s="39">
+        <v>12</v>
+      </c>
+      <c r="C59" s="66">
+        <v>51.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="66">
+        <f>C80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A61" s="171"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="172">
+        <f>C49+C50+C51+C52+C53</f>
+        <v>217.07000000000002</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A62" s="201"/>
+      <c r="B62" s="202" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="203">
+        <f>SUM(C45:C61)</f>
+        <v>820.18</v>
+      </c>
+      <c r="E62" s="85">
+        <f>SUM(E47:E61)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B63" s="204" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="225">
+        <f>C62-E62</f>
+        <v>820.18</v>
+      </c>
+      <c r="D63" s="226"/>
+      <c r="E63" s="205"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B64" s="252" t="s">
+        <v>82</v>
+      </c>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="253"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="253"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="253"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="253"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B69" s="253"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="253"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="253"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" s="253"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B73" s="253"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" s="253"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B75" s="253"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B76" s="253"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B77" s="253"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" s="253"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="254"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C80" s="32">
+        <f>SUM(C64:C79)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B64:B79"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="M3:N3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$O$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q40" r:id="rId1" xr:uid="{475109BE-0295-4B95-8084-A3AEB784A9AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192AFEB2-85AC-4019-A761-8DE506076280}">
   <dimension ref="A1:AA80"/>
   <sheetViews>
@@ -16979,12 +19188,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="K35:L35"/>
@@ -16993,9 +19196,15 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/++++++รายรัย-รายจ่าย 2566.xlsx
+++ b/++++++รายรัย-รายจ่าย 2566.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Code_Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33963C-207A-4253-A8C0-9F61A9C8F9D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDD8C00-A932-479E-9740-1B73251F9FEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{C2DE035B-6225-47A1-B5D0-465EF96E10B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="6" xr2:uid="{C2DE035B-6225-47A1-B5D0-465EF96E10B4}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="06" sheetId="7" r:id="rId6"/>
     <sheet name="07" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="87">
   <si>
     <t>*สรุปทุกสิ้นเดือน เหลือเงินไว้ใช้เดือนต่อไป</t>
   </si>
@@ -290,6 +291,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>NETFLIX</t>
   </si>
 </sst>
 </file>
@@ -899,7 +903,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1499,6 +1503,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
@@ -10312,6 +10320,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -10319,12 +10333,6 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
@@ -12598,6 +12606,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -12606,12 +12620,6 @@
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="G45:G48"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -12630,10 +12638,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AA80"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12897,7 +12905,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="34">
-        <v>200</v>
+        <v>270.83</v>
       </c>
       <c r="L5" s="35"/>
       <c r="M5" s="26"/>
@@ -13106,7 +13114,7 @@
         <v>68</v>
       </c>
       <c r="H9" s="21"/>
-      <c r="I9" s="40">
+      <c r="I9" s="25">
         <v>6</v>
       </c>
       <c r="J9" s="33" t="s">
@@ -13162,7 +13170,7 @@
       <c r="E10" s="55"/>
       <c r="F10" s="56"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="40">
+      <c r="I10" s="25">
         <v>7</v>
       </c>
       <c r="J10" s="57" t="s">
@@ -13219,7 +13227,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="62"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="40">
+      <c r="I11" s="25">
         <v>8</v>
       </c>
       <c r="J11" s="63" t="s">
@@ -13286,13 +13294,16 @@
       </c>
       <c r="D12"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="40">
+      <c r="I12" s="25">
         <v>9</v>
       </c>
       <c r="J12" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="68"/>
+      <c r="K12" s="68">
+        <f>1109-K10</f>
+        <v>442</v>
+      </c>
       <c r="L12" s="69"/>
       <c r="M12" s="70">
         <v>0</v>
@@ -13333,7 +13344,12 @@
       <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="B13" s="215" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="216">
+        <v>441</v>
+      </c>
       <c r="D13"/>
       <c r="H13" s="21"/>
       <c r="I13" s="25">
@@ -13379,11 +13395,15 @@
       <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1500</v>
+      </c>
       <c r="D14" s="22"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="40">
+      <c r="I14" s="25">
         <v>11</v>
       </c>
       <c r="J14" s="75" t="s">
@@ -13444,14 +13464,14 @@
       <c r="C15" s="28"/>
       <c r="D15" s="22"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="40">
+      <c r="I15" s="25">
         <v>12</v>
       </c>
       <c r="J15" s="75" t="s">
         <v>34</v>
       </c>
       <c r="K15" s="81">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="L15" s="59" t="s">
         <v>35</v>
@@ -13584,7 +13604,7 @@
       <c r="C18" s="86"/>
       <c r="D18" s="87"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="40">
+      <c r="I18" s="25">
         <v>15</v>
       </c>
       <c r="J18" s="98" t="s">
@@ -13623,7 +13643,7 @@
       <c r="C19" s="106"/>
       <c r="D19" s="22"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="40">
+      <c r="I19" s="25">
         <v>16</v>
       </c>
       <c r="J19" s="88" t="b">
@@ -13648,8 +13668,12 @@
       <c r="B20" s="21"/>
       <c r="C20" s="28"/>
       <c r="D20" s="21"/>
+      <c r="G20" s="16">
+        <f>K30+K30+K29+K26+K25+K69+K71+L74</f>
+        <v>6415.96</v>
+      </c>
       <c r="H20" s="21"/>
-      <c r="I20" s="40">
+      <c r="I20" s="25">
         <v>17</v>
       </c>
       <c r="J20" s="107" t="s">
@@ -13674,6 +13698,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="16"/>
+      <c r="G21" s="16">
+        <f>G20-6800</f>
+        <v>-384.03999999999996</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="40">
         <v>18</v>
@@ -13735,7 +13763,7 @@
       <c r="C23" s="16"/>
       <c r="F23" s="32"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="40">
+      <c r="I23" s="25">
         <v>20</v>
       </c>
       <c r="J23" s="119" t="s">
@@ -13775,7 +13803,7 @@
       <c r="F24" s="124"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="40">
+      <c r="I24" s="25">
         <v>21</v>
       </c>
       <c r="J24" s="18" t="s">
@@ -13794,7 +13822,10 @@
       <c r="N24" s="15">
         <v>60</v>
       </c>
-      <c r="O24" s="28"/>
+      <c r="O24" s="28">
+        <f>K24*2</f>
+        <v>2940</v>
+      </c>
       <c r="P24" s="125"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="126"/>
@@ -13810,7 +13841,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="40">
+      <c r="I25" s="25">
         <v>22</v>
       </c>
       <c r="J25" s="127" t="s">
@@ -13845,7 +13876,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="40">
+      <c r="I26" s="25">
         <v>23</v>
       </c>
       <c r="J26" s="215" t="s">
@@ -13882,7 +13913,7 @@
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="40">
+      <c r="I27" s="25">
         <v>24</v>
       </c>
       <c r="J27" s="18" t="s">
@@ -13916,7 +13947,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="40">
+      <c r="I28" s="25">
         <v>25</v>
       </c>
       <c r="J28" s="18" t="s">
@@ -13949,7 +13980,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="40">
+      <c r="I29" s="25">
         <v>26</v>
       </c>
       <c r="J29" s="215" t="s">
@@ -13985,7 +14016,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="80">
+      <c r="I30" s="25">
         <v>27</v>
       </c>
       <c r="J30" s="215" t="s">
@@ -14024,7 +14055,9 @@
       <c r="I31" s="80">
         <v>28</v>
       </c>
-      <c r="K31" s="16"/>
+      <c r="K31" s="16">
+        <v>512.5</v>
+      </c>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="96" t="s">
@@ -14045,7 +14078,9 @@
       <c r="I32" s="22">
         <v>29</v>
       </c>
-      <c r="K32" s="16"/>
+      <c r="K32" s="16">
+        <v>384.04</v>
+      </c>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="96"/>
@@ -14060,7 +14095,9 @@
         <v>30</v>
       </c>
       <c r="J33" s="135"/>
-      <c r="K33" s="136"/>
+      <c r="K33" s="136">
+        <v>220</v>
+      </c>
       <c r="L33" s="135"/>
       <c r="M33" s="137"/>
       <c r="N33" s="138"/>
@@ -14092,7 +14129,7 @@
       </c>
       <c r="C35" s="238">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
-        <v>41060.78</v>
+        <v>43001.78</v>
       </c>
       <c r="D35" s="238"/>
       <c r="I35" s="22"/>
@@ -14101,7 +14138,7 @@
       </c>
       <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
-        <v>31495.170000000002</v>
+        <v>33474.54</v>
       </c>
       <c r="L35" s="240"/>
       <c r="M35" s="26"/>
@@ -14154,7 +14191,7 @@
       </c>
       <c r="C37" s="241">
         <f>C35-K35</f>
-        <v>9565.6099999999969</v>
+        <v>9527.239999999998</v>
       </c>
       <c r="D37" s="242"/>
       <c r="E37" s="242"/>
@@ -14222,7 +14259,10 @@
       <c r="D39" s="16"/>
       <c r="E39" s="154"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="155"/>
+      <c r="J39" s="255">
+        <f>C37-8376.74</f>
+        <v>1150.4999999999982</v>
+      </c>
       <c r="K39" s="86"/>
       <c r="L39" s="46"/>
       <c r="Q39" s="144" t="s">
@@ -14258,7 +14298,10 @@
       <c r="G40" s="24"/>
       <c r="I40" s="22"/>
       <c r="J40" s="159"/>
-      <c r="K40" s="102"/>
+      <c r="K40" s="102">
+        <f>K27-1500</f>
+        <v>3500</v>
+      </c>
       <c r="L40" s="160"/>
       <c r="M40" s="130"/>
       <c r="N40" s="27"/>
@@ -14289,7 +14332,10 @@
       <c r="E41" s="154"/>
       <c r="I41" s="22"/>
       <c r="J41" s="164"/>
-      <c r="K41" s="28"/>
+      <c r="K41" s="28">
+        <f>K40+K28</f>
+        <v>4900</v>
+      </c>
       <c r="L41" s="46"/>
       <c r="Q41" s="15" t="s">
         <v>61</v>
@@ -14756,40 +14802,68 @@
       <c r="C67" s="32">
         <v>55</v>
       </c>
+      <c r="L67" s="32">
+        <v>882</v>
+      </c>
     </row>
     <row r="68" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C68" s="32">
         <v>90</v>
       </c>
+      <c r="L68" s="32">
+        <v>625.9</v>
+      </c>
     </row>
     <row r="69" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C69" s="32">
         <v>64</v>
       </c>
+      <c r="K69" s="32">
+        <v>835</v>
+      </c>
     </row>
     <row r="70" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C70" s="32">
         <v>205</v>
       </c>
+      <c r="L70" s="32">
+        <v>950.3</v>
+      </c>
     </row>
     <row r="71" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C71" s="32">
         <v>80</v>
       </c>
+      <c r="K71" s="32">
+        <v>686.4</v>
+      </c>
     </row>
     <row r="72" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C72" s="32">
         <v>101</v>
       </c>
+      <c r="L72" s="32">
+        <v>84.64</v>
+      </c>
     </row>
     <row r="73" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C73" s="32">
         <v>152</v>
       </c>
+      <c r="L73" s="32">
+        <v>5.65</v>
+      </c>
+      <c r="O73" s="32">
+        <f>L67+L68+L70+L72+L73</f>
+        <v>2548.4899999999998</v>
+      </c>
     </row>
     <row r="74" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C74" s="32">
         <v>210</v>
+      </c>
+      <c r="L74" s="32">
+        <v>2435.67</v>
       </c>
     </row>
     <row r="75" spans="3:18" x14ac:dyDescent="0.2">
@@ -14802,9 +14876,29 @@
         <f>SUM(C64:C79)</f>
         <v>1367</v>
       </c>
+      <c r="K80" s="32">
+        <f>SUM(K67:K79)</f>
+        <v>1521.4</v>
+      </c>
+      <c r="L80" s="62">
+        <f>SUM(L67:L79)</f>
+        <v>4984.16</v>
+      </c>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="62">
+        <f>L80+K80</f>
+        <v>6505.5599999999995</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
@@ -14813,12 +14907,6 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="G45:G48"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -14836,8 +14924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391C56E5-EC6E-4825-BAB5-D3FD64DAE331}">
   <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15649,7 +15737,7 @@
         <v>34</v>
       </c>
       <c r="K15" s="81">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="L15" s="59" t="s">
         <v>35</v>
@@ -16222,7 +16310,12 @@
       <c r="I31" s="80">
         <v>28</v>
       </c>
-      <c r="K31" s="16"/>
+      <c r="J31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="16">
+        <v>220</v>
+      </c>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="96" t="s">
@@ -16299,7 +16392,7 @@
       </c>
       <c r="K35" s="239">
         <f>SUM(K4:K34)</f>
-        <v>30128.170000000002</v>
+        <v>30698.170000000002</v>
       </c>
       <c r="L35" s="240"/>
       <c r="M35" s="26"/>
@@ -16352,7 +16445,7 @@
       </c>
       <c r="C37" s="241">
         <f>C35-K35</f>
-        <v>6440.8299999999981</v>
+        <v>5870.8299999999981</v>
       </c>
       <c r="D37" s="242"/>
       <c r="E37" s="242"/>
@@ -16993,6 +17086,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="B64:B79"/>
@@ -17002,15 +17101,9 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="G45:G48"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19188,6 +19281,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="K35:L35"/>
@@ -19196,15 +19295,9 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19213,4 +19306,134 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027172FB-1FCF-43EC-93C0-2DE6095BB213}">
+  <dimension ref="H14:I43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="24.75" style="256" customWidth="1"/>
+    <col min="9" max="9" width="23" style="256" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="256">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="256">
+        <v>2310.1799999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="256">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="256">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="256">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="256">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="256">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="256">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="256">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="256">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="256">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="256">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="256">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="256">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="256">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="256">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H37" s="256">
+        <f>SUM(H14:H36)</f>
+        <v>30798.18</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="256">
+        <f>I43-H37</f>
+        <v>7943.82</v>
+      </c>
+      <c r="I38" s="256">
+        <v>35515</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="256">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="256">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="256">
+        <f>SUM(I38:I42)</f>
+        <v>38742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/++++++รายรัย-รายจ่าย 2566.xlsx
+++ b/++++++รายรัย-รายจ่าย 2566.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9a7d1496b1dc8ba/Documents/GitHub/Code_Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{DCDD8C00-A932-479E-9740-1B73251F9FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2083F1E-FE0D-4632-A5D4-7A24A4D11B3E}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{DCDD8C00-A932-479E-9740-1B73251F9FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA75C6B9-E484-4EE0-9623-1E8378323A80}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{C2DE035B-6225-47A1-B5D0-465EF96E10B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{C2DE035B-6225-47A1-B5D0-465EF96E10B4}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="05" sheetId="6" r:id="rId5"/>
     <sheet name="06" sheetId="7" r:id="rId6"/>
     <sheet name="07" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="08" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="89">
   <si>
     <t>*สรุปทุกสิ้นเดือน เหลือเงินไว้ใช้เดือนต่อไป</t>
   </si>
@@ -1492,7 +1493,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1566,6 +1574,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3841,13 +3853,143 @@
     <mergeCell ref="D60:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="Q40" r:id="rId1" xr:uid="{A0D8010B-17B3-4201-8B3A-9E9E4E2D9008}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027172FB-1FCF-43EC-93C0-2DE6095BB213}">
+  <dimension ref="H14:I43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="24.7109375" style="202" customWidth="1"/>
+    <col min="9" max="9" width="23" style="202" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="8:8">
+      <c r="H14" s="202">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="202">
+        <v>2310.1799999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" s="202">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="202">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="202">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="202">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="202">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="202">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="202">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="202">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="202">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="202">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="202">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="202">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="202">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="202">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9">
+      <c r="H37" s="202">
+        <f>SUM(H14:H36)</f>
+        <v>30798.18</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9">
+      <c r="H38" s="202">
+        <f>I43-H37</f>
+        <v>7943.82</v>
+      </c>
+      <c r="I38" s="202">
+        <v>35515</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9">
+      <c r="I39" s="202">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9">
+      <c r="I40" s="202">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9">
+      <c r="I43" s="202">
+        <f>SUM(I38:I42)</f>
+        <v>38742</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5850,7 +5992,7 @@
     <mergeCell ref="D60:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7945,7 +8087,7 @@
     <mergeCell ref="S55:X55"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10030,6 +10172,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -10037,15 +10185,9 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12259,6 +12401,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -12267,15 +12415,9 @@
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="G45:G48"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14488,6 +14630,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
@@ -14496,15 +14644,9 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="G45:G48"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14522,8 +14664,8 @@
   </sheetPr>
   <dimension ref="A1:AA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16476,6 +16618,9 @@
       <c r="D53" s="199"/>
       <c r="E53" s="199"/>
       <c r="F53" s="199"/>
+      <c r="Y53" s="58">
+        <v>266000</v>
+      </c>
     </row>
     <row r="54" spans="1:25" s="58" customFormat="1">
       <c r="A54" s="34">
@@ -16486,6 +16631,10 @@
       </c>
       <c r="C54" s="58">
         <v>43.64</v>
+      </c>
+      <c r="Y54" s="58">
+        <f>Y52-Y53</f>
+        <v>5359</v>
       </c>
     </row>
     <row r="55" spans="1:25" s="58" customFormat="1">
@@ -16690,6 +16839,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="B65:B80"/>
@@ -16700,15 +16855,9 @@
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="O27:O28"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16720,6 +16869,2214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECBE1C7-5EED-4DB6-8A33-F66E9460077D}">
+  <dimension ref="A1:AA81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="13" style="11" customWidth="1"/>
+    <col min="20" max="21" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" style="11" customWidth="1"/>
+    <col min="26" max="27" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
+      <c r="A1" s="205">
+        <v>243466</v>
+      </c>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="206" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="209"/>
+    </row>
+    <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
+      <c r="A2" s="210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="I2" s="211" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="6">
+        <v>61</v>
+      </c>
+      <c r="U2" s="6">
+        <v>62</v>
+      </c>
+      <c r="V2" s="6">
+        <v>63</v>
+      </c>
+      <c r="W2" s="6">
+        <v>64</v>
+      </c>
+      <c r="X2" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="212" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="212"/>
+      <c r="O3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="15">
+        <v>1</v>
+      </c>
+      <c r="T3" s="16">
+        <f>9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="U3" s="16">
+        <f>9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="V3" s="16">
+        <f>9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="W3" s="16">
+        <f>6086/2</f>
+        <v>3043</v>
+      </c>
+      <c r="X3" s="16">
+        <f>6086/2</f>
+        <v>3043</v>
+      </c>
+      <c r="Y3" s="16">
+        <f>6086/2</f>
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19">
+        <v>32000</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="22">
+        <v>800</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27">
+        <v>2</v>
+      </c>
+      <c r="T4" s="16">
+        <f t="shared" ref="T4:V14" si="0">9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="U4" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V4" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W4" s="16">
+        <f t="shared" ref="W4:Y14" si="1">6086/2</f>
+        <v>3043</v>
+      </c>
+      <c r="X4" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y4" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="I5" s="15">
+        <v>2</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="30">
+        <v>200</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27">
+        <v>3</v>
+      </c>
+      <c r="T5" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X5" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y5" s="16">
+        <f>6086/2+Z5</f>
+        <v>53066</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>50023</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="I6" s="15">
+        <v>3</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="30">
+        <v>750</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27">
+        <v>4</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y6" s="136"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1069</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="15"/>
+      <c r="I7" s="15">
+        <v>4</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27">
+        <v>5</v>
+      </c>
+      <c r="T7" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U7" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X7" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y7" s="16"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="24"/>
+      <c r="I8" s="35">
+        <v>5</v>
+      </c>
+      <c r="J8" s="186"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="27">
+        <v>6</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X8" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y8" s="16"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="17">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17">
+        <v>6</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="35">
+        <v>6</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="30">
+        <v>400</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="41">
+        <v>1</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="43">
+        <v>400</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27">
+        <v>7</v>
+      </c>
+      <c r="T9" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X9" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y9" s="16"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="I10" s="35">
+        <v>7</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="50">
+        <v>667</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="16">
+        <v>667</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27">
+        <v>8</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y10" s="16"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="17">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="52">
+        <f>D11*E11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="I11" s="34">
+        <v>8</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="56">
+        <v>3192</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="57">
+        <v>15</v>
+      </c>
+      <c r="N11" s="57">
+        <v>58</v>
+      </c>
+      <c r="O11" s="16">
+        <f>((N11-M11)+1)*K11</f>
+        <v>140448</v>
+      </c>
+      <c r="P11" s="16">
+        <f>M11*K11</f>
+        <v>47880</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>136961</v>
+      </c>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27">
+        <v>9</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y11" s="16"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="58">
+        <v>500</v>
+      </c>
+      <c r="D12"/>
+      <c r="I12" s="34">
+        <v>9</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62">
+        <v>0</v>
+      </c>
+      <c r="N12" s="62">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27">
+        <v>10</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y12" s="16"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13"/>
+      <c r="I13" s="34">
+        <v>10</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="16">
+        <v>2000</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="27">
+        <v>11</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V13" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y13" s="16"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="I14" s="34">
+        <v>11</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="65">
+        <v>500</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="66"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="16">
+        <v>3857.81</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="67">
+        <f>O14-P14</f>
+        <v>3857.81</v>
+      </c>
+      <c r="R14" s="68">
+        <f>Q14*0.05</f>
+        <v>192.8905</v>
+      </c>
+      <c r="S14" s="27">
+        <v>12</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y14" s="16"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="I15" s="34">
+        <v>12</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="70">
+        <v>1350</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="74">
+        <f t="shared" ref="T15:Y15" si="2">SUM(T3:T14)</f>
+        <v>54150</v>
+      </c>
+      <c r="U15" s="74">
+        <f t="shared" si="2"/>
+        <v>54150</v>
+      </c>
+      <c r="V15" s="74">
+        <f t="shared" si="2"/>
+        <v>27075</v>
+      </c>
+      <c r="W15" s="74">
+        <f t="shared" si="2"/>
+        <v>36516</v>
+      </c>
+      <c r="X15" s="74">
+        <f t="shared" si="2"/>
+        <v>36516</v>
+      </c>
+      <c r="Y15" s="74">
+        <f t="shared" si="2"/>
+        <v>59152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="I16" s="34">
+        <v>13</v>
+      </c>
+      <c r="J16" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="78">
+        <f>C63</f>
+        <v>2354.3199999999997</v>
+      </c>
+      <c r="L16" s="79"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80">
+        <v>13000</v>
+      </c>
+      <c r="X16" s="80">
+        <v>5800</v>
+      </c>
+      <c r="Y16" s="80"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="I17" s="34">
+        <v>14</v>
+      </c>
+      <c r="J17" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="82">
+        <v>2140</v>
+      </c>
+      <c r="L17" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="84">
+        <v>12</v>
+      </c>
+      <c r="N17" s="84">
+        <v>96</v>
+      </c>
+      <c r="O17" s="16">
+        <v>119837.12</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="40">
+        <f>O17+P17</f>
+        <v>119837.12</v>
+      </c>
+      <c r="R17" s="85">
+        <f>Q17*0.03</f>
+        <v>3595.1135999999997</v>
+      </c>
+      <c r="S17" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="213">
+        <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
+        <v>286359</v>
+      </c>
+      <c r="U17" s="214"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="215"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="17">
+        <v>15</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="I18" s="34">
+        <v>15</v>
+      </c>
+      <c r="J18" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="87">
+        <v>4500</v>
+      </c>
+      <c r="L18" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="90">
+        <v>128228.72</v>
+      </c>
+      <c r="P18" s="22">
+        <v>30000</v>
+      </c>
+      <c r="Q18" s="67">
+        <v>148318.19</v>
+      </c>
+      <c r="R18" s="68">
+        <f>Q18*0.03</f>
+        <v>4449.5456999999997</v>
+      </c>
+      <c r="S18" s="91"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="17">
+        <v>16</v>
+      </c>
+      <c r="B19" s="93"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="15"/>
+      <c r="I19" s="34">
+        <v>16</v>
+      </c>
+      <c r="J19" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="78">
+        <v>107</v>
+      </c>
+      <c r="L19" s="79"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="17">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="16"/>
+      <c r="I20" s="34">
+        <v>17</v>
+      </c>
+      <c r="J20" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="95">
+        <v>1069</v>
+      </c>
+      <c r="L20" s="96"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="17">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="I21" s="34">
+        <v>18</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="50">
+        <v>0</v>
+      </c>
+      <c r="L21" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="98">
+        <v>29</v>
+      </c>
+      <c r="O21" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="17">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="I22" s="34">
+        <v>19</v>
+      </c>
+      <c r="J22" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="100">
+        <v>500</v>
+      </c>
+      <c r="L22" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+    </row>
+    <row r="23" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A23" s="17">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="F23" s="28"/>
+      <c r="I23" s="34">
+        <v>20</v>
+      </c>
+      <c r="J23" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="193">
+        <v>1480</v>
+      </c>
+      <c r="L23" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="16">
+        <v>34571.199999999997</v>
+      </c>
+      <c r="P23" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="40">
+        <f>O23+P23</f>
+        <v>34571.199999999997</v>
+      </c>
+      <c r="R23" s="85">
+        <f>Q23*0.03</f>
+        <v>1037.136</v>
+      </c>
+      <c r="S23" s="91"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="17">
+        <v>21</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="F24" s="107"/>
+      <c r="I24" s="34">
+        <v>21</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="16">
+        <f>2940</f>
+        <v>2940</v>
+      </c>
+      <c r="L24" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="15">
+        <v>15</v>
+      </c>
+      <c r="N24" s="15">
+        <v>60</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="17">
+        <v>22</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="I25" s="34">
+        <v>22</v>
+      </c>
+      <c r="J25" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="111">
+        <v>415.79</v>
+      </c>
+      <c r="L25" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="113"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="16">
+        <v>5019.97</v>
+      </c>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16">
+        <f>O25*0.05</f>
+        <v>250.99850000000004</v>
+      </c>
+      <c r="S25" s="91"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="17">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="I26" s="34">
+        <v>23</v>
+      </c>
+      <c r="J26" s="191" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="192">
+        <f>882/2</f>
+        <v>441</v>
+      </c>
+      <c r="L26" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="17">
+        <v>6</v>
+      </c>
+      <c r="N26" s="17">
+        <v>10</v>
+      </c>
+      <c r="O26" s="16">
+        <f>K26*(N26+1-M26)</f>
+        <v>2205</v>
+      </c>
+      <c r="P26" s="16">
+        <f>K26*2</f>
+        <v>882</v>
+      </c>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="17">
+        <v>24</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="I27" s="34">
+        <v>24</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="16">
+        <f>5000-1500</f>
+        <v>3500</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="17">
+        <v>6</v>
+      </c>
+      <c r="N27" s="17">
+        <f>12*24</f>
+        <v>288</v>
+      </c>
+      <c r="O27" s="233">
+        <f>K27+K28</f>
+        <v>4900</v>
+      </c>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="17">
+        <v>25</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="I28" s="34">
+        <v>25</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="16">
+        <v>1400</v>
+      </c>
+      <c r="M28" s="17">
+        <v>5</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="234"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="17">
+        <v>26</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="I29" s="34">
+        <v>26</v>
+      </c>
+      <c r="J29" s="191" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="196">
+        <v>950.3</v>
+      </c>
+      <c r="L29" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="17">
+        <v>5</v>
+      </c>
+      <c r="N29" s="17">
+        <v>10</v>
+      </c>
+      <c r="O29" s="16">
+        <f>K29*(N29+1-M29)</f>
+        <v>5701.7999999999993</v>
+      </c>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="17">
+        <v>27</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="I30" s="34">
+        <v>27</v>
+      </c>
+      <c r="J30" s="191" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="200">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="L30" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="114">
+        <v>3</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="O30" s="16">
+        <f>K30*(N30+1-M30)</f>
+        <v>2607.1999999999998</v>
+      </c>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+    </row>
+    <row r="31" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A31" s="17">
+        <v>28</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="I31" s="34">
+        <v>28</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="16">
+        <v>220</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="40"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="C32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="I32" s="34">
+        <v>29</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="92"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="C33" s="16"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="34">
+        <v>30</v>
+      </c>
+      <c r="J33" s="117"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="C34" s="16"/>
+      <c r="I34" s="15">
+        <v>31</v>
+      </c>
+      <c r="J34" s="93"/>
+      <c r="K34" s="16"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+    </row>
+    <row r="35" spans="1:25" ht="21">
+      <c r="B35" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="216">
+        <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
+        <v>36569</v>
+      </c>
+      <c r="D35" s="216"/>
+      <c r="J35" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="217">
+        <f>SUM(K4:K34)</f>
+        <v>32202.31</v>
+      </c>
+      <c r="L35" s="218"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="30">
+        <f>P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="207" t="s">
+        <v>73</v>
+      </c>
+      <c r="T35" s="208"/>
+      <c r="U35" s="208"/>
+      <c r="V35" s="208"/>
+      <c r="W35" s="208"/>
+      <c r="X35" s="209"/>
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="18.75">
+      <c r="P36" s="28"/>
+      <c r="S36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36" s="6">
+        <v>66</v>
+      </c>
+      <c r="U36" s="6">
+        <v>67</v>
+      </c>
+      <c r="V36" s="6">
+        <v>68</v>
+      </c>
+      <c r="W36" s="6">
+        <v>69</v>
+      </c>
+      <c r="X36" s="6">
+        <v>70</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="21">
+      <c r="B37" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="219">
+        <f>C35-K35</f>
+        <v>4366.6899999999987</v>
+      </c>
+      <c r="D37" s="220"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="220"/>
+      <c r="K37" s="220"/>
+      <c r="L37" s="221"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="28"/>
+      <c r="S37" s="15">
+        <v>1</v>
+      </c>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="B38" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="129">
+        <v>0</v>
+      </c>
+      <c r="D38" s="130"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="132"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="16">
+        <f>K17+K18+K23+1000</f>
+        <v>9120</v>
+      </c>
+      <c r="Q38" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="27">
+        <v>2</v>
+      </c>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="B39" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="74">
+        <f>D39+P35</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="92"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="40"/>
+      <c r="Q39" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" s="27">
+        <v>3</v>
+      </c>
+      <c r="T39" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="B40" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="135">
+        <f>D40+E40+F40+G40+D41</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="136">
+        <v>0</v>
+      </c>
+      <c r="E40" s="137">
+        <v>0</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="90">
+        <v>11810.21</v>
+      </c>
+      <c r="L40" s="139"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="24"/>
+      <c r="Q40" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="27">
+        <v>4</v>
+      </c>
+      <c r="T40" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="136"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="B41" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="142">
+        <f>(C38+C40)-C39</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="137"/>
+      <c r="E41" s="92"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="16">
+        <v>835</v>
+      </c>
+      <c r="L41" s="40"/>
+      <c r="Q41" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S41" s="27">
+        <v>5</v>
+      </c>
+      <c r="T41" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="16">
+        <v>700</v>
+      </c>
+      <c r="L42" s="40"/>
+      <c r="N42" s="24"/>
+      <c r="Q42" s="15"/>
+      <c r="S42" s="27">
+        <v>6</v>
+      </c>
+      <c r="T42" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="K43" s="28">
+        <v>400</v>
+      </c>
+      <c r="L43" s="125"/>
+      <c r="Q43" s="15"/>
+      <c r="S43" s="27">
+        <v>7</v>
+      </c>
+      <c r="T43" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44" s="125"/>
+      <c r="Q44" s="15"/>
+      <c r="S44" s="27">
+        <v>8</v>
+      </c>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+    </row>
+    <row r="45" spans="1:25" s="58" customFormat="1">
+      <c r="A45" s="34">
+        <v>2</v>
+      </c>
+      <c r="B45" s="34">
+        <v>6</v>
+      </c>
+      <c r="C45" s="58">
+        <v>66.13</v>
+      </c>
+      <c r="D45" s="58">
+        <f t="shared" ref="D45" si="3">(B45-A45)*C45</f>
+        <v>264.52</v>
+      </c>
+      <c r="F45" s="58">
+        <f>C45*B45</f>
+        <v>396.78</v>
+      </c>
+      <c r="G45" s="228">
+        <f>C45+C46+C47+C48</f>
+        <v>235.94</v>
+      </c>
+      <c r="K45" s="58">
+        <f>SUM(K40:K44)</f>
+        <v>13745.21</v>
+      </c>
+      <c r="S45" s="27">
+        <v>9</v>
+      </c>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+    </row>
+    <row r="46" spans="1:25" s="58" customFormat="1">
+      <c r="A46" s="34">
+        <v>3</v>
+      </c>
+      <c r="B46" s="34">
+        <v>3</v>
+      </c>
+      <c r="C46" s="58">
+        <v>62.43</v>
+      </c>
+      <c r="G46" s="229"/>
+      <c r="S46" s="27">
+        <v>10</v>
+      </c>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+    </row>
+    <row r="47" spans="1:25" s="58" customFormat="1">
+      <c r="A47" s="34">
+        <v>3</v>
+      </c>
+      <c r="B47" s="34">
+        <v>6</v>
+      </c>
+      <c r="C47" s="58">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="G47" s="229"/>
+      <c r="S47" s="27">
+        <v>11</v>
+      </c>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+    </row>
+    <row r="48" spans="1:25" s="58" customFormat="1">
+      <c r="A48" s="34">
+        <v>3</v>
+      </c>
+      <c r="B48" s="34">
+        <v>6</v>
+      </c>
+      <c r="C48" s="58">
+        <v>70.83</v>
+      </c>
+      <c r="G48" s="229"/>
+      <c r="S48" s="27">
+        <v>12</v>
+      </c>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+    </row>
+    <row r="49" spans="1:25" s="58" customFormat="1">
+      <c r="A49" s="34">
+        <v>3</v>
+      </c>
+      <c r="B49" s="34">
+        <v>6</v>
+      </c>
+      <c r="C49" s="199">
+        <v>85.97</v>
+      </c>
+      <c r="D49" s="199"/>
+      <c r="E49" s="199"/>
+      <c r="F49" s="199"/>
+      <c r="S49" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" s="74">
+        <f t="shared" ref="T49:Y49" si="4">SUM(T37:T48)</f>
+        <v>15000</v>
+      </c>
+      <c r="U49" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="58" customFormat="1">
+      <c r="A50" s="34">
+        <v>3</v>
+      </c>
+      <c r="B50" s="34">
+        <v>6</v>
+      </c>
+      <c r="C50" s="199">
+        <v>57.95</v>
+      </c>
+      <c r="D50" s="199"/>
+      <c r="E50" s="199"/>
+      <c r="F50" s="199"/>
+      <c r="S50" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+    </row>
+    <row r="51" spans="1:25" s="58" customFormat="1">
+      <c r="A51" s="34">
+        <v>4</v>
+      </c>
+      <c r="B51" s="34">
+        <v>6</v>
+      </c>
+      <c r="C51" s="199">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="D51" s="199"/>
+      <c r="E51" s="199"/>
+      <c r="F51" s="199"/>
+      <c r="S51" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="213">
+        <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
+        <v>15000</v>
+      </c>
+      <c r="U51" s="214"/>
+      <c r="V51" s="214"/>
+      <c r="W51" s="214"/>
+      <c r="X51" s="214"/>
+      <c r="Y51" s="215"/>
+    </row>
+    <row r="52" spans="1:25" s="58" customFormat="1">
+      <c r="A52" s="34">
+        <v>4</v>
+      </c>
+      <c r="B52" s="34">
+        <v>6</v>
+      </c>
+      <c r="C52" s="199">
+        <v>34.17</v>
+      </c>
+      <c r="D52" s="199"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="199"/>
+      <c r="S52" s="194" t="s">
+        <v>74</v>
+      </c>
+      <c r="T52" s="194"/>
+      <c r="U52" s="194"/>
+      <c r="V52" s="194"/>
+      <c r="W52" s="194"/>
+      <c r="X52" s="194"/>
+      <c r="Y52" s="194">
+        <f>T17-T51</f>
+        <v>271359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" s="58" customFormat="1">
+      <c r="A53" s="34">
+        <v>1</v>
+      </c>
+      <c r="B53" s="34">
+        <v>6</v>
+      </c>
+      <c r="C53" s="199">
+        <v>184.48</v>
+      </c>
+      <c r="D53" s="199"/>
+      <c r="E53" s="199"/>
+      <c r="F53" s="199"/>
+      <c r="Y53" s="58">
+        <v>266000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" s="58" customFormat="1">
+      <c r="A54" s="34">
+        <v>1</v>
+      </c>
+      <c r="B54" s="34">
+        <v>6</v>
+      </c>
+      <c r="C54" s="58">
+        <v>13.4</v>
+      </c>
+      <c r="Y54" s="58">
+        <f>Y52-Y53</f>
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" s="58" customFormat="1">
+      <c r="A55" s="34">
+        <v>1</v>
+      </c>
+      <c r="B55" s="34">
+        <v>6</v>
+      </c>
+      <c r="C55" s="58">
+        <v>96.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" s="58" customFormat="1">
+      <c r="A56" s="34">
+        <v>4</v>
+      </c>
+      <c r="B56" s="34">
+        <v>6</v>
+      </c>
+      <c r="C56" s="58">
+        <v>64.739999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" s="58" customFormat="1">
+      <c r="A57" s="34">
+        <v>7</v>
+      </c>
+      <c r="B57" s="34">
+        <v>12</v>
+      </c>
+      <c r="C57" s="58">
+        <v>54.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" s="58" customFormat="1">
+      <c r="A58" s="34">
+        <v>7</v>
+      </c>
+      <c r="B58" s="34">
+        <v>12</v>
+      </c>
+      <c r="C58" s="58">
+        <v>62.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" s="58" customFormat="1">
+      <c r="A59" s="34">
+        <v>8</v>
+      </c>
+      <c r="B59" s="34">
+        <v>12</v>
+      </c>
+      <c r="C59" s="58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" s="58" customFormat="1">
+      <c r="A60" s="34">
+        <v>11</v>
+      </c>
+      <c r="B60" s="34">
+        <v>12</v>
+      </c>
+      <c r="C60" s="58">
+        <v>51.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" s="58" customFormat="1">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="58">
+        <f>C81</f>
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="148"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="149">
+        <f>C49+C50+C51+C52+C53</f>
+        <v>403.12</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="177"/>
+      <c r="B63" s="178" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="179">
+        <f>SUM(C45:C62)</f>
+        <v>2354.3199999999997</v>
+      </c>
+      <c r="E63" s="74">
+        <f>SUM(E47:E62)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="B64" s="180" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="203">
+        <f>C63-E63</f>
+        <v>2354.3199999999997</v>
+      </c>
+      <c r="D64" s="204"/>
+      <c r="E64" s="181"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+    </row>
+    <row r="65" spans="2:18">
+      <c r="B65" s="230" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="28">
+        <v>904</v>
+      </c>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="B66" s="231"/>
+      <c r="C66" s="28">
+        <v>218</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+    </row>
+    <row r="67" spans="2:18">
+      <c r="B67" s="231"/>
+      <c r="C67" s="28">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18">
+      <c r="B68" s="231"/>
+    </row>
+    <row r="69" spans="2:18">
+      <c r="B69" s="231"/>
+    </row>
+    <row r="70" spans="2:18">
+      <c r="B70" s="231"/>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="B71" s="231"/>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="B72" s="231"/>
+    </row>
+    <row r="73" spans="2:18">
+      <c r="B73" s="231"/>
+    </row>
+    <row r="74" spans="2:18">
+      <c r="B74" s="231"/>
+    </row>
+    <row r="75" spans="2:18">
+      <c r="B75" s="231"/>
+    </row>
+    <row r="76" spans="2:18">
+      <c r="B76" s="231"/>
+    </row>
+    <row r="77" spans="2:18">
+      <c r="B77" s="231"/>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="B78" s="231"/>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="B79" s="231"/>
+    </row>
+    <row r="80" spans="2:18">
+      <c r="B80" s="232"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="28">
+        <f>SUM(C65:C80)</f>
+        <v>1297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B65:B80"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="M3:N3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$O$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q40" r:id="rId1" xr:uid="{13A7817F-0AB6-419B-BD22-53333674A1BF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192AFEB2-85AC-4019-A761-8DE506076280}">
   <dimension ref="A1:AA80"/>
   <sheetViews>
@@ -18829,6 +21186,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="K35:L35"/>
@@ -18837,15 +21200,9 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18854,134 +21211,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027172FB-1FCF-43EC-93C0-2DE6095BB213}">
-  <dimension ref="H14:I43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="8" max="8" width="24.7109375" style="202" customWidth="1"/>
-    <col min="9" max="9" width="23" style="202" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="14" spans="8:8">
-      <c r="H14" s="202">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="H15" s="202">
-        <v>2310.1799999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="H16" s="202">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" s="202">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" s="202">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" s="202">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20" s="202">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="H21" s="202">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22" s="202">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23" s="202">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24" s="202">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="202">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="202">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="202">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8">
-      <c r="H28" s="202">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="29" spans="8:8">
-      <c r="H29" s="202">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9">
-      <c r="H37" s="202">
-        <f>SUM(H14:H36)</f>
-        <v>30798.18</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9">
-      <c r="H38" s="202">
-        <f>I43-H37</f>
-        <v>7943.82</v>
-      </c>
-      <c r="I38" s="202">
-        <v>35515</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9">
-      <c r="I39" s="202">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9">
-      <c r="I40" s="202">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9">
-      <c r="I43" s="202">
-        <f>SUM(I38:I42)</f>
-        <v>38742</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/++++++รายรัย-รายจ่าย 2566.xlsx
+++ b/++++++รายรัย-รายจ่าย 2566.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9a7d1496b1dc8ba/Documents/GitHub/Code_Library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1050" documentId="13_ncr:1_{DCDD8C00-A932-479E-9740-1B73251F9FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5257AE16-6EB9-4F31-9319-140FE1696A48}"/>
+  <xr:revisionPtr revIDLastSave="1266" documentId="13_ncr:1_{DCDD8C00-A932-479E-9740-1B73251F9FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{320064BD-BB8A-4ADE-99C2-AD0115C224AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{C2DE035B-6225-47A1-B5D0-465EF96E10B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{C2DE035B-6225-47A1-B5D0-465EF96E10B4}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="07" sheetId="8" r:id="rId7"/>
     <sheet name="08" sheetId="10" r:id="rId8"/>
     <sheet name="09" sheetId="14" r:id="rId9"/>
-    <sheet name="1" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet4" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId13"/>
+    <sheet name="10" sheetId="15" r:id="rId10"/>
+    <sheet name="1" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="115">
   <si>
     <t>*สรุปทุกสิ้นเดือน เหลือเงินไว้ใช้เดือนต่อไป</t>
   </si>
@@ -375,6 +376,24 @@
   </si>
   <si>
     <t>1066.66</t>
+  </si>
+  <si>
+    <t>tqm</t>
+  </si>
+  <si>
+    <t>ที่นอน</t>
+  </si>
+  <si>
+    <t>กันสาด</t>
+  </si>
+  <si>
+    <t>krungsri 1 Choice</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>iPhone 15 PM</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1012,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1524,6 +1543,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="28" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="25" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1629,6 +1675,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
@@ -1643,14 +1692,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1745,10 +1787,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2080,59 +2118,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243256</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -2188,10 +2226,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -2923,14 +2961,14 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16</f>
         <v>227207</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="251"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="17">
@@ -3361,19 +3399,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>26497.78</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>24874.481599999999</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -3390,19 +3428,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>1623.2983999999997</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -3883,7 +3921,7 @@
       <c r="A60" s="154"/>
       <c r="B60" s="154"/>
       <c r="C60" s="169"/>
-      <c r="D60" s="247">
+      <c r="D60" s="258">
         <f>C60+C61+C62</f>
         <v>0</v>
       </c>
@@ -3904,7 +3942,7 @@
       <c r="A61" s="154"/>
       <c r="B61" s="154"/>
       <c r="C61" s="169"/>
-      <c r="D61" s="247"/>
+      <c r="D61" s="258"/>
       <c r="E61" s="169"/>
       <c r="F61" s="169"/>
       <c r="J61" s="11"/>
@@ -3919,7 +3957,7 @@
       <c r="A62" s="154"/>
       <c r="B62" s="154"/>
       <c r="C62" s="169"/>
-      <c r="D62" s="248"/>
+      <c r="D62" s="259"/>
       <c r="E62" s="169"/>
       <c r="F62" s="169"/>
       <c r="J62" s="11"/>
@@ -3982,11 +4020,11 @@
       <c r="B66" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="228">
+      <c r="C66" s="239">
         <f>C65-E65</f>
         <v>916.90000000000009</v>
       </c>
-      <c r="D66" s="229"/>
+      <c r="D66" s="240"/>
       <c r="E66" s="181"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -4024,7 +4062,7 @@
     <mergeCell ref="D60:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4036,6 +4074,2541 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B44F4F-2F61-4031-8823-651817DAA05D}">
+  <dimension ref="A1:AA83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="13" style="11" customWidth="1"/>
+    <col min="20" max="21" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
+      <c r="A1" s="241">
+        <v>243497</v>
+      </c>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="243" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
+    </row>
+    <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
+      <c r="A2" s="246" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="6">
+        <v>61</v>
+      </c>
+      <c r="U2" s="6">
+        <v>62</v>
+      </c>
+      <c r="V2" s="6">
+        <v>63</v>
+      </c>
+      <c r="W2" s="6">
+        <v>64</v>
+      </c>
+      <c r="X2" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="248" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="248"/>
+      <c r="O3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="15">
+        <v>1</v>
+      </c>
+      <c r="T3" s="16">
+        <f>9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="U3" s="16">
+        <f>9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="V3" s="16">
+        <f>9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="W3" s="16">
+        <f>6086/2</f>
+        <v>3043</v>
+      </c>
+      <c r="X3" s="16">
+        <f>6086/2</f>
+        <v>3043</v>
+      </c>
+      <c r="Y3" s="16">
+        <f>6086/2</f>
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19">
+        <v>32000</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="22">
+        <v>600</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27">
+        <v>2</v>
+      </c>
+      <c r="T4" s="16">
+        <f t="shared" ref="T4:V14" si="0">9025/2</f>
+        <v>4512.5</v>
+      </c>
+      <c r="U4" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V4" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W4" s="16">
+        <f t="shared" ref="W4:Y14" si="1">6086/2</f>
+        <v>3043</v>
+      </c>
+      <c r="X4" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y4" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="I5" s="15">
+        <v>2</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="30">
+        <v>280</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27">
+        <v>3</v>
+      </c>
+      <c r="T5" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X5" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y5" s="16">
+        <f>6086/2+Z5</f>
+        <v>53066</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>50023</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="I6" s="15">
+        <v>3</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="30">
+        <v>750</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27">
+        <v>4</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U6" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y6" s="136"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1069</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="15"/>
+      <c r="I7" s="15">
+        <v>4</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27">
+        <v>5</v>
+      </c>
+      <c r="T7" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U7" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X7" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y7" s="16"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="24"/>
+      <c r="I8" s="35">
+        <v>5</v>
+      </c>
+      <c r="J8" s="186"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="27">
+        <v>6</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X8" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y8" s="16"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="17">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="24"/>
+      <c r="I9" s="35">
+        <v>6</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="30">
+        <v>400</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="41">
+        <v>3</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="43">
+        <v>400</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27">
+        <v>7</v>
+      </c>
+      <c r="T9" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U9" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X9" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y9" s="16"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="I10" s="35">
+        <v>7</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="50">
+        <v>667</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="16">
+        <v>667</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27">
+        <v>8</v>
+      </c>
+      <c r="T10" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y10" s="16"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="17">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="52">
+        <f>D11*E11</f>
+        <v>1066.6600000000001</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="I11" s="34">
+        <v>8</v>
+      </c>
+      <c r="J11" s="227" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="87">
+        <v>478.2</v>
+      </c>
+      <c r="L11" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="89">
+        <v>2</v>
+      </c>
+      <c r="N11" s="89">
+        <v>10</v>
+      </c>
+      <c r="O11" s="16">
+        <f>K11*(N11+1-M11)</f>
+        <v>4303.8</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27">
+        <v>9</v>
+      </c>
+      <c r="T11" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U11" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y11" s="16"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="58">
+        <v>500</v>
+      </c>
+      <c r="D12"/>
+      <c r="I12" s="34">
+        <v>9</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62">
+        <v>0</v>
+      </c>
+      <c r="N12" s="62">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27">
+        <v>10</v>
+      </c>
+      <c r="T12" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V12" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y12" s="16"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="58">
+        <v>0</v>
+      </c>
+      <c r="D13"/>
+      <c r="I13" s="34">
+        <v>10</v>
+      </c>
+      <c r="J13" s="191" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="192">
+        <v>322.39999999999998</v>
+      </c>
+      <c r="L13" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="17">
+        <v>2</v>
+      </c>
+      <c r="N13" s="17">
+        <v>10</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="27">
+        <v>11</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V13" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y13" s="16"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="I14" s="34">
+        <v>11</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="65">
+        <v>500</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="66"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="16">
+        <v>3857.81</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="67">
+        <f>O14-P14</f>
+        <v>3857.81</v>
+      </c>
+      <c r="R14" s="68">
+        <f>Q14*0.05</f>
+        <v>192.8905</v>
+      </c>
+      <c r="S14" s="27">
+        <v>12</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="0"/>
+        <v>4512.5</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="1"/>
+        <v>3043</v>
+      </c>
+      <c r="Y14" s="16"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="I15" s="34">
+        <v>12</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="70">
+        <v>0</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="74">
+        <f t="shared" ref="T15:Y15" si="2">SUM(T3:T14)</f>
+        <v>54150</v>
+      </c>
+      <c r="U15" s="74">
+        <f t="shared" si="2"/>
+        <v>54150</v>
+      </c>
+      <c r="V15" s="74">
+        <f t="shared" si="2"/>
+        <v>27075</v>
+      </c>
+      <c r="W15" s="74">
+        <f t="shared" si="2"/>
+        <v>36516</v>
+      </c>
+      <c r="X15" s="74">
+        <f t="shared" si="2"/>
+        <v>36516</v>
+      </c>
+      <c r="Y15" s="74">
+        <f t="shared" si="2"/>
+        <v>59152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="I16" s="34">
+        <v>13</v>
+      </c>
+      <c r="J16" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="78">
+        <f>C65</f>
+        <v>1125.6699999999998</v>
+      </c>
+      <c r="L16" s="79"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80">
+        <v>13000</v>
+      </c>
+      <c r="X16" s="80">
+        <v>5800</v>
+      </c>
+      <c r="Y16" s="80"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="I17" s="34">
+        <v>14</v>
+      </c>
+      <c r="J17" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="82">
+        <v>2140</v>
+      </c>
+      <c r="L17" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="84">
+        <v>14</v>
+      </c>
+      <c r="N17" s="84">
+        <v>96</v>
+      </c>
+      <c r="O17" s="16">
+        <v>119837.12</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="40">
+        <f>O17+P17</f>
+        <v>119837.12</v>
+      </c>
+      <c r="R17" s="85">
+        <f>Q17*0.03</f>
+        <v>3595.1135999999997</v>
+      </c>
+      <c r="S17" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="249">
+        <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
+        <v>286359</v>
+      </c>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="17">
+        <v>15</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="I18" s="34">
+        <v>15</v>
+      </c>
+      <c r="J18" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="87">
+        <f>R18</f>
+        <v>3371.94</v>
+      </c>
+      <c r="L18" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="90">
+        <v>112398</v>
+      </c>
+      <c r="P18" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="67">
+        <f>O18+P18</f>
+        <v>112398</v>
+      </c>
+      <c r="R18" s="68">
+        <f>Q18*0.03</f>
+        <v>3371.94</v>
+      </c>
+      <c r="S18" s="91"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="17">
+        <v>16</v>
+      </c>
+      <c r="B19" s="93"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="15"/>
+      <c r="I19" s="34">
+        <v>16</v>
+      </c>
+      <c r="J19" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="78">
+        <v>107</v>
+      </c>
+      <c r="L19" s="79"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="17">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="16"/>
+      <c r="I20" s="34">
+        <v>17</v>
+      </c>
+      <c r="J20" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="95">
+        <v>1069</v>
+      </c>
+      <c r="L20" s="96"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="17">
+        <v>18</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="I21" s="34">
+        <v>18</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="16">
+        <f>2940</f>
+        <v>2940</v>
+      </c>
+      <c r="L21" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="15">
+        <v>17</v>
+      </c>
+      <c r="N21" s="15">
+        <v>60</v>
+      </c>
+      <c r="O21" s="16">
+        <v>84154.9</v>
+      </c>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16">
+        <f>K21/2</f>
+        <v>1470</v>
+      </c>
+      <c r="S21" s="91"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="17">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="I22" s="34">
+        <v>19</v>
+      </c>
+      <c r="J22" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="100">
+        <v>500</v>
+      </c>
+      <c r="L22" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+    </row>
+    <row r="23" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A23" s="17">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="F23" s="28"/>
+      <c r="I23" s="34">
+        <v>20</v>
+      </c>
+      <c r="J23" s="191" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="200">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="L23" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="114">
+        <v>5</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="16">
+        <f>625.9*(N23+1-M23)</f>
+        <v>3755.3999999999996</v>
+      </c>
+      <c r="P23" s="224"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="225"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="17">
+        <v>21</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="F24" s="107"/>
+      <c r="I24" s="34">
+        <v>21</v>
+      </c>
+      <c r="J24" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="74">
+        <v>220</v>
+      </c>
+      <c r="L24" s="229"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="17">
+        <v>22</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="I25" s="34">
+        <v>22</v>
+      </c>
+      <c r="J25" s="230" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="231">
+        <f>5350-1470-300</f>
+        <v>3580</v>
+      </c>
+      <c r="L25" s="232" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="17">
+        <v>8</v>
+      </c>
+      <c r="N25" s="17">
+        <f>12*24</f>
+        <v>288</v>
+      </c>
+      <c r="O25" s="269">
+        <f>K25+K26</f>
+        <v>4980</v>
+      </c>
+      <c r="P25" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16">
+        <f>O25*0.05</f>
+        <v>249</v>
+      </c>
+      <c r="S25" s="91"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="17">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="I26" s="34">
+        <v>23</v>
+      </c>
+      <c r="J26" s="230" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="231">
+        <v>1400</v>
+      </c>
+      <c r="L26" s="232"/>
+      <c r="M26" s="17">
+        <v>7</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="270"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="17">
+        <v>24</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="I27" s="34">
+        <v>24</v>
+      </c>
+      <c r="J27" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="50">
+        <f>P27/2</f>
+        <v>300</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" s="233">
+        <v>20000</v>
+      </c>
+      <c r="P27" s="16">
+        <f>O27*0.03</f>
+        <v>600</v>
+      </c>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="17">
+        <v>25</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="I28" s="34">
+        <v>25</v>
+      </c>
+      <c r="J28" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="87">
+        <v>3260</v>
+      </c>
+      <c r="L28" s="274" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="17">
+        <v>1</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28" s="234"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="17">
+        <v>26</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="I29" s="34">
+        <v>26</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="M29" s="17">
+        <v>1</v>
+      </c>
+      <c r="N29" s="17">
+        <v>15</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="203"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="17">
+        <v>27</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="I30" s="34">
+        <v>27</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+    </row>
+    <row r="31" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A31" s="17">
+        <v>28</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="I31" s="34">
+        <v>28</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="40"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="C32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="I32" s="34">
+        <v>29</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="92"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="C33" s="16"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="34">
+        <v>30</v>
+      </c>
+      <c r="J33" s="117"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="C34" s="16"/>
+      <c r="I34" s="15">
+        <v>31</v>
+      </c>
+      <c r="J34" s="93"/>
+      <c r="K34" s="16"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+    </row>
+    <row r="35" spans="1:25" ht="21">
+      <c r="B35" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="252">
+        <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
+        <v>34635.660000000003</v>
+      </c>
+      <c r="D35" s="252"/>
+      <c r="J35" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="253">
+        <f>SUM(K4:K34)</f>
+        <v>24337.11</v>
+      </c>
+      <c r="L35" s="254"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="30">
+        <f>P18+P25+P26+P29+P30</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="243" t="s">
+        <v>73</v>
+      </c>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="18.75">
+      <c r="P36" s="28"/>
+      <c r="S36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36" s="6">
+        <v>66</v>
+      </c>
+      <c r="U36" s="6">
+        <v>67</v>
+      </c>
+      <c r="V36" s="6">
+        <v>68</v>
+      </c>
+      <c r="W36" s="6">
+        <v>69</v>
+      </c>
+      <c r="X36" s="6">
+        <v>70</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="21">
+      <c r="B37" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="255">
+        <f>C35-K35</f>
+        <v>10298.550000000003</v>
+      </c>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="28"/>
+      <c r="S37" s="15">
+        <v>1</v>
+      </c>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="B38" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="129">
+        <v>50000</v>
+      </c>
+      <c r="D38" s="130"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="132"/>
+      <c r="K38" s="28">
+        <f>1767+2275</f>
+        <v>4042</v>
+      </c>
+      <c r="N38" s="24"/>
+      <c r="O38" s="16">
+        <f>K17+K18+K23+1000</f>
+        <v>6837.84</v>
+      </c>
+      <c r="Q38" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="27">
+        <v>2</v>
+      </c>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="B39" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="74">
+        <f>D39+P35</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="92"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="40"/>
+      <c r="Q39" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" s="27">
+        <v>3</v>
+      </c>
+      <c r="T39" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="B40" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="135">
+        <f>D40+E40+F40+G40+D41</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="136">
+        <v>0</v>
+      </c>
+      <c r="E40" s="137">
+        <v>0</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="24"/>
+      <c r="Q40" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="27">
+        <v>4</v>
+      </c>
+      <c r="T40" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="136"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="B41" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="142">
+        <f>(C38+C40)-C39</f>
+        <v>50000</v>
+      </c>
+      <c r="D41" s="137"/>
+      <c r="E41" s="92"/>
+      <c r="J41" s="16"/>
+      <c r="L41" s="40"/>
+      <c r="Q41" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S41" s="27">
+        <v>5</v>
+      </c>
+      <c r="T41" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="J42" s="16"/>
+      <c r="L42" s="40"/>
+      <c r="N42" s="24"/>
+      <c r="Q42" s="15"/>
+      <c r="S42" s="27">
+        <v>6</v>
+      </c>
+      <c r="T42" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="L43" s="228"/>
+      <c r="Q43" s="15"/>
+      <c r="S43" s="27">
+        <v>7</v>
+      </c>
+      <c r="T43" s="16">
+        <v>3000</v>
+      </c>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44" s="228"/>
+      <c r="Q44" s="15"/>
+      <c r="S44" s="27">
+        <v>8</v>
+      </c>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+    </row>
+    <row r="45" spans="1:25" s="58" customFormat="1">
+      <c r="A45" s="34">
+        <v>3</v>
+      </c>
+      <c r="B45" s="34">
+        <v>6</v>
+      </c>
+      <c r="C45" s="58">
+        <v>44.73</v>
+      </c>
+      <c r="D45" s="58">
+        <f>(B45-A45)*C45</f>
+        <v>134.19</v>
+      </c>
+      <c r="F45" s="58">
+        <f>C45*B45</f>
+        <v>268.38</v>
+      </c>
+      <c r="G45" s="264">
+        <f>C45+C46+C47+C48</f>
+        <v>381.48999999999995</v>
+      </c>
+      <c r="S45" s="27">
+        <v>9</v>
+      </c>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+    </row>
+    <row r="46" spans="1:25" s="58" customFormat="1">
+      <c r="A46" s="34">
+        <v>3</v>
+      </c>
+      <c r="B46" s="34">
+        <v>6</v>
+      </c>
+      <c r="C46" s="58">
+        <v>138.88</v>
+      </c>
+      <c r="D46" s="58">
+        <f t="shared" ref="D46:D61" si="3">(B46-A46)*C46</f>
+        <v>416.64</v>
+      </c>
+      <c r="F46" s="58">
+        <f t="shared" ref="F46:F61" si="4">C46*B46</f>
+        <v>833.28</v>
+      </c>
+      <c r="G46" s="265"/>
+      <c r="S46" s="27">
+        <v>10</v>
+      </c>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+    </row>
+    <row r="47" spans="1:25" s="58" customFormat="1">
+      <c r="A47" s="34">
+        <v>3</v>
+      </c>
+      <c r="B47" s="34">
+        <v>6</v>
+      </c>
+      <c r="C47" s="58">
+        <v>184.48</v>
+      </c>
+      <c r="D47" s="58">
+        <f t="shared" si="3"/>
+        <v>553.43999999999994</v>
+      </c>
+      <c r="F47" s="58">
+        <f t="shared" si="4"/>
+        <v>1106.8799999999999</v>
+      </c>
+      <c r="G47" s="265"/>
+      <c r="S47" s="27">
+        <v>11</v>
+      </c>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+    </row>
+    <row r="48" spans="1:25" s="58" customFormat="1">
+      <c r="A48" s="34">
+        <v>3</v>
+      </c>
+      <c r="B48" s="34">
+        <v>6</v>
+      </c>
+      <c r="C48" s="58">
+        <v>13.4</v>
+      </c>
+      <c r="D48" s="58">
+        <f t="shared" si="3"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F48" s="58">
+        <f t="shared" si="4"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G48" s="265"/>
+      <c r="S48" s="27">
+        <v>12</v>
+      </c>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+    </row>
+    <row r="49" spans="1:27" s="58" customFormat="1">
+      <c r="A49" s="34">
+        <v>3</v>
+      </c>
+      <c r="B49" s="34">
+        <v>6</v>
+      </c>
+      <c r="C49" s="58">
+        <v>96.24</v>
+      </c>
+      <c r="D49" s="58">
+        <f t="shared" si="3"/>
+        <v>288.71999999999997</v>
+      </c>
+      <c r="F49" s="58">
+        <f t="shared" si="4"/>
+        <v>577.43999999999994</v>
+      </c>
+      <c r="S49" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" s="74">
+        <f t="shared" ref="T49:Y49" si="5">SUM(T37:T48)</f>
+        <v>15000</v>
+      </c>
+      <c r="U49" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="58" customFormat="1">
+      <c r="A50" s="34">
+        <v>4</v>
+      </c>
+      <c r="B50" s="34">
+        <v>6</v>
+      </c>
+      <c r="C50" s="58">
+        <v>66.13</v>
+      </c>
+      <c r="D50" s="58">
+        <f t="shared" si="3"/>
+        <v>132.26</v>
+      </c>
+      <c r="F50" s="58">
+        <f t="shared" si="4"/>
+        <v>396.78</v>
+      </c>
+      <c r="K50" s="58">
+        <v>12543.02</v>
+      </c>
+      <c r="S50" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+    </row>
+    <row r="51" spans="1:27" s="58" customFormat="1">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="58">
+        <v>0</v>
+      </c>
+      <c r="D51" s="58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="58">
+        <v>2435.67</v>
+      </c>
+      <c r="L51" s="58">
+        <f>K51</f>
+        <v>2435.67</v>
+      </c>
+      <c r="S51" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" s="249">
+        <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
+        <v>15000</v>
+      </c>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
+      <c r="Z51" s="58">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="58" customFormat="1">
+      <c r="A52" s="235">
+        <v>5</v>
+      </c>
+      <c r="B52" s="235">
+        <v>6</v>
+      </c>
+      <c r="C52" s="236">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="D52" s="236">
+        <f t="shared" si="3"/>
+        <v>36.549999999999997</v>
+      </c>
+      <c r="E52" s="236"/>
+      <c r="F52" s="236">
+        <f t="shared" si="4"/>
+        <v>219.29999999999998</v>
+      </c>
+      <c r="K52" s="58">
+        <v>882</v>
+      </c>
+      <c r="L52" s="58">
+        <f>K56</f>
+        <v>950.3</v>
+      </c>
+      <c r="S52" s="272" t="s">
+        <v>74</v>
+      </c>
+      <c r="T52" s="272"/>
+      <c r="U52" s="272"/>
+      <c r="V52" s="272"/>
+      <c r="W52" s="272"/>
+      <c r="X52" s="272"/>
+      <c r="Y52" s="194">
+        <f>T17-T51</f>
+        <v>271359</v>
+      </c>
+      <c r="Z52" s="58">
+        <v>256950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" s="58" customFormat="1">
+      <c r="A53" s="235">
+        <v>5</v>
+      </c>
+      <c r="B53" s="235">
+        <v>6</v>
+      </c>
+      <c r="C53" s="236">
+        <v>70.83</v>
+      </c>
+      <c r="D53" s="236">
+        <f t="shared" si="3"/>
+        <v>70.83</v>
+      </c>
+      <c r="E53" s="236"/>
+      <c r="F53" s="236">
+        <f t="shared" si="4"/>
+        <v>424.98</v>
+      </c>
+      <c r="K53" s="58">
+        <v>625.9</v>
+      </c>
+      <c r="L53" s="58">
+        <f>K52</f>
+        <v>882</v>
+      </c>
+      <c r="S53" s="271" t="s">
+        <v>75</v>
+      </c>
+      <c r="T53" s="271"/>
+      <c r="U53" s="271"/>
+      <c r="V53" s="271"/>
+      <c r="W53" s="271"/>
+      <c r="X53" s="271"/>
+      <c r="Y53" s="58">
+        <v>15600</v>
+      </c>
+      <c r="Z53" s="58">
+        <f>Z51-Z52</f>
+        <v>3050</v>
+      </c>
+      <c r="AA53" s="58">
+        <f>Z53/2</f>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" s="58" customFormat="1">
+      <c r="A54" s="235">
+        <v>5</v>
+      </c>
+      <c r="B54" s="235">
+        <v>6</v>
+      </c>
+      <c r="C54" s="236">
+        <v>85.97</v>
+      </c>
+      <c r="D54" s="236">
+        <f t="shared" si="3"/>
+        <v>85.97</v>
+      </c>
+      <c r="E54" s="236"/>
+      <c r="F54" s="236">
+        <f t="shared" si="4"/>
+        <v>515.81999999999994</v>
+      </c>
+      <c r="K54" s="58">
+        <v>835</v>
+      </c>
+      <c r="S54" s="271" t="s">
+        <v>76</v>
+      </c>
+      <c r="T54" s="271"/>
+      <c r="U54" s="271"/>
+      <c r="V54" s="271"/>
+      <c r="W54" s="271"/>
+      <c r="X54" s="271"/>
+      <c r="Y54" s="58">
+        <v>18925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" s="58" customFormat="1">
+      <c r="A55" s="235">
+        <v>5</v>
+      </c>
+      <c r="B55" s="235">
+        <v>6</v>
+      </c>
+      <c r="C55" s="236">
+        <v>57.95</v>
+      </c>
+      <c r="D55" s="236">
+        <f t="shared" si="3"/>
+        <v>57.95</v>
+      </c>
+      <c r="E55" s="236"/>
+      <c r="F55" s="236">
+        <f t="shared" si="4"/>
+        <v>347.70000000000005</v>
+      </c>
+      <c r="K55" s="58">
+        <v>686.4</v>
+      </c>
+      <c r="X55" s="212" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y55" s="198">
+        <f>Y52-Y53-Y54</f>
+        <v>236834</v>
+      </c>
+      <c r="Z55" s="58">
+        <f>Z52-Y55</f>
+        <v>20116</v>
+      </c>
+      <c r="AA55" s="58">
+        <f>Y55-AA60</f>
+        <v>235309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="58" customFormat="1">
+      <c r="A56" s="237">
+        <v>6</v>
+      </c>
+      <c r="B56" s="237">
+        <v>6</v>
+      </c>
+      <c r="C56" s="238">
+        <v>39.03</v>
+      </c>
+      <c r="D56" s="238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="238"/>
+      <c r="F56" s="238">
+        <f t="shared" si="4"/>
+        <v>234.18</v>
+      </c>
+      <c r="K56" s="58">
+        <v>950.3</v>
+      </c>
+      <c r="U56" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="X56" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y56" s="58">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="58" customFormat="1">
+      <c r="A57" s="237">
+        <v>6</v>
+      </c>
+      <c r="B57" s="237">
+        <v>6</v>
+      </c>
+      <c r="C57" s="238">
+        <v>34.15</v>
+      </c>
+      <c r="D57" s="238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="238"/>
+      <c r="F57" s="238">
+        <f t="shared" si="4"/>
+        <v>204.89999999999998</v>
+      </c>
+      <c r="K57" s="58">
+        <v>77.7</v>
+      </c>
+      <c r="S57" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="T57" s="58">
+        <v>2178</v>
+      </c>
+      <c r="U57" s="58">
+        <v>3</v>
+      </c>
+      <c r="V57" s="265">
+        <f>T57+T58+T59</f>
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="58" customFormat="1">
+      <c r="A58" s="237">
+        <v>6</v>
+      </c>
+      <c r="B58" s="237">
+        <v>6</v>
+      </c>
+      <c r="C58" s="238">
+        <v>64.81</v>
+      </c>
+      <c r="D58" s="238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="238"/>
+      <c r="F58" s="238">
+        <f t="shared" si="4"/>
+        <v>388.86</v>
+      </c>
+      <c r="K58" s="58">
+        <v>5.18</v>
+      </c>
+      <c r="T58" s="58">
+        <v>2685</v>
+      </c>
+      <c r="V58" s="265"/>
+    </row>
+    <row r="59" spans="1:27" s="58" customFormat="1">
+      <c r="A59" s="34">
+        <v>9</v>
+      </c>
+      <c r="B59" s="34">
+        <v>12</v>
+      </c>
+      <c r="C59" s="58">
+        <v>54.88</v>
+      </c>
+      <c r="D59" s="58">
+        <f t="shared" si="3"/>
+        <v>164.64000000000001</v>
+      </c>
+      <c r="F59" s="58">
+        <f t="shared" si="4"/>
+        <v>658.56000000000006</v>
+      </c>
+      <c r="K59" s="58">
+        <f>SUM(K51:K58)</f>
+        <v>6498.15</v>
+      </c>
+      <c r="T59" s="58">
+        <v>2634</v>
+      </c>
+      <c r="V59" s="265"/>
+      <c r="Y59" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z59" s="58">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" s="58" customFormat="1">
+      <c r="A60" s="34">
+        <v>9</v>
+      </c>
+      <c r="B60" s="34">
+        <v>12</v>
+      </c>
+      <c r="C60" s="58">
+        <v>62.64</v>
+      </c>
+      <c r="D60" s="58">
+        <f t="shared" si="3"/>
+        <v>187.92000000000002</v>
+      </c>
+      <c r="F60" s="58">
+        <f t="shared" si="4"/>
+        <v>751.68000000000006</v>
+      </c>
+      <c r="O60" s="58">
+        <f>793/2</f>
+        <v>396.5</v>
+      </c>
+      <c r="S60" s="215" t="s">
+        <v>94</v>
+      </c>
+      <c r="T60" s="215">
+        <v>2697</v>
+      </c>
+      <c r="U60" s="215">
+        <v>3</v>
+      </c>
+      <c r="V60" s="215">
+        <f>T60/3</f>
+        <v>899</v>
+      </c>
+      <c r="W60" s="58">
+        <f>V61-T60</f>
+        <v>1544</v>
+      </c>
+      <c r="Y60" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z60" s="58">
+        <v>3050</v>
+      </c>
+      <c r="AA60" s="58">
+        <f>Z60/2</f>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" s="58" customFormat="1">
+      <c r="A61" s="34">
+        <v>10</v>
+      </c>
+      <c r="B61" s="34">
+        <v>12</v>
+      </c>
+      <c r="C61" s="58">
+        <v>75</v>
+      </c>
+      <c r="D61" s="58">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="F61" s="58">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="S61" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="T61" s="58">
+        <v>1014</v>
+      </c>
+      <c r="V61" s="265">
+        <f>T61+T62+T63</f>
+        <v>4241</v>
+      </c>
+      <c r="Y61" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z61" s="58">
+        <f>Z59-Z60</f>
+        <v>256950</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="16">
+        <f>K50-K59</f>
+        <v>6044.8700000000008</v>
+      </c>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="T62" s="136">
+        <v>1477</v>
+      </c>
+      <c r="V62" s="265"/>
+      <c r="Y62" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z62" s="16">
+        <f>Z61-Y55</f>
+        <v>20116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="58">
+        <f>C83</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="T63" s="136">
+        <v>1750</v>
+      </c>
+      <c r="V63" s="273"/>
+      <c r="Y63" s="150" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z63" s="22">
+        <f>Z62+AA60</f>
+        <v>21641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="A64" s="148"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="149">
+        <f>C49+C50+C51+C52+C53</f>
+        <v>269.75</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="U64" s="16">
+        <f>T62+T61</f>
+        <v>2491</v>
+      </c>
+      <c r="V64" s="16">
+        <f>T60-U64</f>
+        <v>206</v>
+      </c>
+      <c r="Y64" s="16"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" s="177"/>
+      <c r="B65" s="178" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="179">
+        <f>SUM(C45:C64)</f>
+        <v>1125.6699999999998</v>
+      </c>
+      <c r="E65" s="74">
+        <f>SUM(E47:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="Y65" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z65" s="136">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="B66" s="180" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="239">
+        <f>C65-E65</f>
+        <v>1125.6699999999998</v>
+      </c>
+      <c r="D66" s="240"/>
+      <c r="E66" s="181"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="Y66" s="220" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z66" s="30">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="B67" s="266" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y67" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z67" s="136">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="B68" s="267"/>
+      <c r="Y68" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z68" s="136">
+        <v>2000</v>
+      </c>
+      <c r="AA68" s="136">
+        <f>4000/2</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="B69" s="267"/>
+      <c r="Z69" s="136"/>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="B70" s="267"/>
+      <c r="Y70" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z70" s="136">
+        <f>SUM(Z65:Z69)</f>
+        <v>9086</v>
+      </c>
+      <c r="AA70" s="16">
+        <f>Z65+Z66+Z67+AA68</f>
+        <v>9086</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="B71" s="267"/>
+      <c r="Z71" s="136"/>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="B72" s="267"/>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="B73" s="267"/>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="B74" s="267"/>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="B75" s="267"/>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="B76" s="267"/>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="B77" s="267"/>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="B78" s="267"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="B79" s="267"/>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="B80" s="267"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="267"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="268"/>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="C83" s="28">
+        <f>SUM(C67:C82)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="V57:V59"/>
+    <mergeCell ref="V61:V63"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="S52:X52"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="S54:X54"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q40" r:id="rId1" xr:uid="{915E9D1C-C9EF-4934-ACC9-F9D42BE5BD7D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDB261A-AC7C-4667-83BA-AFD29B49E3AE}">
   <dimension ref="A1:AA81"/>
   <sheetViews>
@@ -4072,59 +6645,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243466</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -4183,10 +6756,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -4990,15 +7563,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -5095,11 +7668,11 @@
       <c r="J22" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="242">
+      <c r="K22" s="253">
         <f>SUM(K4:K21)</f>
         <v>13836.25</v>
       </c>
-      <c r="L22" s="243"/>
+      <c r="L22" s="254"/>
       <c r="N22" s="24"/>
       <c r="O22" s="16"/>
       <c r="P22" s="30">
@@ -5329,11 +7902,11 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>34935.090000000004</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="58"/>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
@@ -5343,14 +7916,14 @@
       <c r="P35" s="58"/>
       <c r="Q35" s="58"/>
       <c r="R35" s="58"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -5654,7 +8227,7 @@
         <f>C45*B45</f>
         <v>396.78</v>
       </c>
-      <c r="G45" s="253">
+      <c r="G45" s="264">
         <f>C45+C46+C47+C48</f>
         <v>235.94</v>
       </c>
@@ -5678,7 +8251,7 @@
       <c r="C46" s="58">
         <v>62.43</v>
       </c>
-      <c r="G46" s="254"/>
+      <c r="G46" s="265"/>
       <c r="S46" s="27">
         <v>10</v>
       </c>
@@ -5699,7 +8272,7 @@
       <c r="C47" s="58">
         <v>36.549999999999997</v>
       </c>
-      <c r="G47" s="254"/>
+      <c r="G47" s="265"/>
       <c r="S47" s="27">
         <v>11</v>
       </c>
@@ -5720,7 +8293,7 @@
       <c r="C48" s="58">
         <v>70.83</v>
       </c>
-      <c r="G48" s="254"/>
+      <c r="G48" s="265"/>
       <c r="S48" s="27">
         <v>12</v>
       </c>
@@ -5838,15 +8411,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>15000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" s="58" customFormat="1">
       <c r="A52" s="34">
@@ -6106,15 +8679,15 @@
       <c r="B64" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="228">
+      <c r="C64" s="239">
         <f>C63-E63</f>
         <v>2354.3199999999997</v>
       </c>
-      <c r="D64" s="229"/>
+      <c r="D64" s="240"/>
       <c r="E64" s="181"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="255" t="s">
+      <c r="B65" s="266" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="28">
@@ -6122,55 +8695,55 @@
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="256"/>
+      <c r="B66" s="267"/>
       <c r="C66" s="28">
         <v>218</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="256"/>
+      <c r="B67" s="267"/>
       <c r="C67" s="28">
         <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="256"/>
+      <c r="B68" s="267"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="256"/>
+      <c r="B69" s="267"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="256"/>
+      <c r="B70" s="267"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="256"/>
+      <c r="B71" s="267"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="256"/>
+      <c r="B72" s="267"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="256"/>
+      <c r="B73" s="267"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="256"/>
+      <c r="B74" s="267"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="256"/>
+      <c r="B75" s="267"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="256"/>
+      <c r="B76" s="267"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="256"/>
+      <c r="B77" s="267"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="256"/>
+      <c r="B78" s="267"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="256"/>
+      <c r="B79" s="267"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="257"/>
+      <c r="B80" s="268"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="28">
@@ -6180,12 +8753,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C64:D64"/>
@@ -6194,12 +8761,18 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="S35:X35"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937AE3B4-DFCD-44DE-B727-DB6610916583}">
   <dimension ref="A1:AA81"/>
   <sheetViews>
@@ -6236,59 +8809,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243466</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -6347,10 +8920,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -7142,15 +9715,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -7476,7 +10049,7 @@
         <f>12*24</f>
         <v>288</v>
       </c>
-      <c r="O27" s="258">
+      <c r="O27" s="269">
         <f>K27+K28</f>
         <v>4900</v>
       </c>
@@ -7511,7 +10084,7 @@
       <c r="N28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="259"/>
+      <c r="O28" s="270"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -7677,19 +10250,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>38127.090000000004</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>24621.315200000001</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -7698,14 +10271,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -7736,19 +10309,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>13505.774800000003</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -7979,7 +10552,7 @@
         <f>C45*B45</f>
         <v>396.78</v>
       </c>
-      <c r="G45" s="253">
+      <c r="G45" s="264">
         <f>C45+C46+C47+C48</f>
         <v>235.94</v>
       </c>
@@ -8007,7 +10580,7 @@
       <c r="C46" s="58">
         <v>62.43</v>
       </c>
-      <c r="G46" s="254"/>
+      <c r="G46" s="265"/>
       <c r="S46" s="27">
         <v>10</v>
       </c>
@@ -8028,7 +10601,7 @@
       <c r="C47" s="58">
         <v>36.549999999999997</v>
       </c>
-      <c r="G47" s="254"/>
+      <c r="G47" s="265"/>
       <c r="S47" s="27">
         <v>11</v>
       </c>
@@ -8049,7 +10622,7 @@
       <c r="C48" s="58">
         <v>70.83</v>
       </c>
-      <c r="G48" s="254"/>
+      <c r="G48" s="265"/>
       <c r="S48" s="27">
         <v>12</v>
       </c>
@@ -8140,15 +10713,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>15000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" s="58" customFormat="1">
       <c r="A52" s="34">
@@ -8324,11 +10897,11 @@
       <c r="B64" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="228">
+      <c r="C64" s="239">
         <f>C63-E63</f>
         <v>2354.3199999999997</v>
       </c>
-      <c r="D64" s="229"/>
+      <c r="D64" s="240"/>
       <c r="E64" s="181"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -8336,7 +10909,7 @@
       <c r="R64" s="11"/>
     </row>
     <row r="65" spans="2:18">
-      <c r="B65" s="255" t="s">
+      <c r="B65" s="266" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="28">
@@ -8348,7 +10921,7 @@
       <c r="R65" s="11"/>
     </row>
     <row r="66" spans="2:18">
-      <c r="B66" s="256"/>
+      <c r="B66" s="267"/>
       <c r="C66" s="28">
         <v>218</v>
       </c>
@@ -8358,49 +10931,49 @@
       <c r="R66" s="11"/>
     </row>
     <row r="67" spans="2:18">
-      <c r="B67" s="256"/>
+      <c r="B67" s="267"/>
       <c r="C67" s="28">
         <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="256"/>
+      <c r="B68" s="267"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="256"/>
+      <c r="B69" s="267"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="256"/>
+      <c r="B70" s="267"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="256"/>
+      <c r="B71" s="267"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="256"/>
+      <c r="B72" s="267"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="256"/>
+      <c r="B73" s="267"/>
     </row>
     <row r="74" spans="2:18">
-      <c r="B74" s="256"/>
+      <c r="B74" s="267"/>
     </row>
     <row r="75" spans="2:18">
-      <c r="B75" s="256"/>
+      <c r="B75" s="267"/>
     </row>
     <row r="76" spans="2:18">
-      <c r="B76" s="256"/>
+      <c r="B76" s="267"/>
     </row>
     <row r="77" spans="2:18">
-      <c r="B77" s="256"/>
+      <c r="B77" s="267"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="256"/>
+      <c r="B78" s="267"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="256"/>
+      <c r="B79" s="267"/>
     </row>
     <row r="80" spans="2:18">
-      <c r="B80" s="257"/>
+      <c r="B80" s="268"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="28">
@@ -8410,6 +10983,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C64:D64"/>
@@ -8420,12 +10999,6 @@
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -8439,7 +11012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192AFEB2-85AC-4019-A761-8DE506076280}">
   <dimension ref="A1:AA81"/>
   <sheetViews>
@@ -8476,59 +11049,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243466</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -8587,10 +11160,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -9387,15 +11960,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -9722,7 +12295,7 @@
         <f>12*24</f>
         <v>288</v>
       </c>
-      <c r="O27" s="258">
+      <c r="O27" s="269">
         <f>K27+K28</f>
         <v>4900</v>
       </c>
@@ -9757,7 +12330,7 @@
       <c r="N28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="259"/>
+      <c r="O28" s="270"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -9925,19 +12498,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>38893.990000000005</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>23855.071700000004</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -9946,14 +12519,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -9984,19 +12557,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>15038.918300000001</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -10227,7 +12800,7 @@
         <f>C45*B45</f>
         <v>396.78</v>
       </c>
-      <c r="G45" s="253">
+      <c r="G45" s="264">
         <f>C45+C46+C47+C48</f>
         <v>235.94</v>
       </c>
@@ -10255,7 +12828,7 @@
       <c r="C46" s="58">
         <v>62.43</v>
       </c>
-      <c r="G46" s="254"/>
+      <c r="G46" s="265"/>
       <c r="S46" s="27">
         <v>10</v>
       </c>
@@ -10276,7 +12849,7 @@
       <c r="C47" s="58">
         <v>36.549999999999997</v>
       </c>
-      <c r="G47" s="254"/>
+      <c r="G47" s="265"/>
       <c r="S47" s="27">
         <v>11</v>
       </c>
@@ -10297,7 +12870,7 @@
       <c r="C48" s="58">
         <v>70.83</v>
       </c>
-      <c r="G48" s="254"/>
+      <c r="G48" s="265"/>
       <c r="S48" s="27">
         <v>12</v>
       </c>
@@ -10388,15 +12961,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>15000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" s="58" customFormat="1">
       <c r="A52" s="34">
@@ -10572,11 +13145,11 @@
       <c r="B64" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="228">
+      <c r="C64" s="239">
         <f>C63-E63</f>
         <v>2354.3199999999997</v>
       </c>
-      <c r="D64" s="229"/>
+      <c r="D64" s="240"/>
       <c r="E64" s="181"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -10584,7 +13157,7 @@
       <c r="R64" s="11"/>
     </row>
     <row r="65" spans="2:18">
-      <c r="B65" s="255" t="s">
+      <c r="B65" s="266" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="28">
@@ -10596,7 +13169,7 @@
       <c r="R65" s="11"/>
     </row>
     <row r="66" spans="2:18">
-      <c r="B66" s="256"/>
+      <c r="B66" s="267"/>
       <c r="C66" s="28">
         <v>218</v>
       </c>
@@ -10606,49 +13179,49 @@
       <c r="R66" s="11"/>
     </row>
     <row r="67" spans="2:18">
-      <c r="B67" s="256"/>
+      <c r="B67" s="267"/>
       <c r="C67" s="28">
         <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="256"/>
+      <c r="B68" s="267"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="256"/>
+      <c r="B69" s="267"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="256"/>
+      <c r="B70" s="267"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="256"/>
+      <c r="B71" s="267"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="256"/>
+      <c r="B72" s="267"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="256"/>
+      <c r="B73" s="267"/>
     </row>
     <row r="74" spans="2:18">
-      <c r="B74" s="256"/>
+      <c r="B74" s="267"/>
     </row>
     <row r="75" spans="2:18">
-      <c r="B75" s="256"/>
+      <c r="B75" s="267"/>
     </row>
     <row r="76" spans="2:18">
-      <c r="B76" s="256"/>
+      <c r="B76" s="267"/>
     </row>
     <row r="77" spans="2:18">
-      <c r="B77" s="256"/>
+      <c r="B77" s="267"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="256"/>
+      <c r="B78" s="267"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="256"/>
+      <c r="B79" s="267"/>
     </row>
     <row r="80" spans="2:18">
-      <c r="B80" s="257"/>
+      <c r="B80" s="268"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="28">
@@ -10658,12 +13231,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="B65:B80"/>
     <mergeCell ref="T17:Y17"/>
@@ -10674,6 +13241,12 @@
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="O27:O28"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -10687,7 +13260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F623D148-DC9A-4E5A-8D4B-095EEBCDA92C}">
   <dimension ref="A1:AA81"/>
   <sheetViews>
@@ -10724,59 +13297,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243466</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -10835,10 +13408,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -11617,15 +14190,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -11951,7 +14524,7 @@
         <f>12*24</f>
         <v>288</v>
       </c>
-      <c r="O27" s="258">
+      <c r="O27" s="269">
         <f>K27+K28</f>
         <v>4900</v>
       </c>
@@ -11986,7 +14559,7 @@
       <c r="N28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="259"/>
+      <c r="O28" s="270"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -12157,19 +14730,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>34519.300000000003</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>22569.903200000004</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -12178,14 +14751,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -12216,19 +14789,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>11949.396799999999</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -12456,7 +15029,7 @@
         <f>C45*B45</f>
         <v>396.78</v>
       </c>
-      <c r="G45" s="253">
+      <c r="G45" s="264">
         <f>C45+C46+C47+C48</f>
         <v>235.94</v>
       </c>
@@ -12484,7 +15057,7 @@
       <c r="C46" s="58">
         <v>62.43</v>
       </c>
-      <c r="G46" s="254"/>
+      <c r="G46" s="265"/>
       <c r="S46" s="27">
         <v>10</v>
       </c>
@@ -12505,7 +15078,7 @@
       <c r="C47" s="58">
         <v>36.549999999999997</v>
       </c>
-      <c r="G47" s="254"/>
+      <c r="G47" s="265"/>
       <c r="S47" s="27">
         <v>11</v>
       </c>
@@ -12526,7 +15099,7 @@
       <c r="C48" s="58">
         <v>70.83</v>
       </c>
-      <c r="G48" s="254"/>
+      <c r="G48" s="265"/>
       <c r="S48" s="27">
         <v>12</v>
       </c>
@@ -12617,15 +15190,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>15000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" s="58" customFormat="1">
       <c r="A52" s="34">
@@ -12801,11 +15374,11 @@
       <c r="B64" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="228">
+      <c r="C64" s="239">
         <f>C63-E63</f>
         <v>2354.3199999999997</v>
       </c>
-      <c r="D64" s="229"/>
+      <c r="D64" s="240"/>
       <c r="E64" s="181"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -12813,7 +15386,7 @@
       <c r="R64" s="11"/>
     </row>
     <row r="65" spans="2:18">
-      <c r="B65" s="255" t="s">
+      <c r="B65" s="266" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="28">
@@ -12825,7 +15398,7 @@
       <c r="R65" s="11"/>
     </row>
     <row r="66" spans="2:18">
-      <c r="B66" s="256"/>
+      <c r="B66" s="267"/>
       <c r="C66" s="28">
         <v>218</v>
       </c>
@@ -12835,49 +15408,49 @@
       <c r="R66" s="11"/>
     </row>
     <row r="67" spans="2:18">
-      <c r="B67" s="256"/>
+      <c r="B67" s="267"/>
       <c r="C67" s="28">
         <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="256"/>
+      <c r="B68" s="267"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="256"/>
+      <c r="B69" s="267"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="256"/>
+      <c r="B70" s="267"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="256"/>
+      <c r="B71" s="267"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="256"/>
+      <c r="B72" s="267"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="256"/>
+      <c r="B73" s="267"/>
     </row>
     <row r="74" spans="2:18">
-      <c r="B74" s="256"/>
+      <c r="B74" s="267"/>
     </row>
     <row r="75" spans="2:18">
-      <c r="B75" s="256"/>
+      <c r="B75" s="267"/>
     </row>
     <row r="76" spans="2:18">
-      <c r="B76" s="256"/>
+      <c r="B76" s="267"/>
     </row>
     <row r="77" spans="2:18">
-      <c r="B77" s="256"/>
+      <c r="B77" s="267"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="256"/>
+      <c r="B78" s="267"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="256"/>
+      <c r="B79" s="267"/>
     </row>
     <row r="80" spans="2:18">
-      <c r="B80" s="257"/>
+      <c r="B80" s="268"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="28">
@@ -12887,12 +15460,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C64:D64"/>
@@ -12903,6 +15470,12 @@
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -12951,59 +15524,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243287</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -13062,10 +15635,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -13849,15 +16422,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>263723</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -14291,19 +16864,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>26497.78</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>26318.941600000002</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -14320,19 +16893,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>178.83839999999691</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -14776,7 +17349,7 @@
       <c r="A60" s="154"/>
       <c r="B60" s="154"/>
       <c r="C60" s="169"/>
-      <c r="D60" s="247">
+      <c r="D60" s="258">
         <f>C60+C61+C62</f>
         <v>0</v>
       </c>
@@ -14794,7 +17367,7 @@
       <c r="A61" s="154"/>
       <c r="B61" s="154"/>
       <c r="C61" s="169"/>
-      <c r="D61" s="247"/>
+      <c r="D61" s="258"/>
       <c r="E61" s="169"/>
       <c r="F61" s="169"/>
       <c r="J61" s="11"/>
@@ -14809,7 +17382,7 @@
       <c r="A62" s="154"/>
       <c r="B62" s="154"/>
       <c r="C62" s="169"/>
-      <c r="D62" s="248"/>
+      <c r="D62" s="259"/>
       <c r="E62" s="169"/>
       <c r="F62" s="169"/>
       <c r="J62" s="11"/>
@@ -14872,11 +17445,11 @@
       <c r="B66" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="228">
+      <c r="C66" s="239">
         <f>C65-E65</f>
         <v>799.57</v>
       </c>
-      <c r="D66" s="229"/>
+      <c r="D66" s="240"/>
       <c r="E66" s="181"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -14914,7 +17487,7 @@
     <mergeCell ref="D60:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14961,59 +17534,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243315</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -15072,10 +17645,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -15837,15 +18410,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -16299,19 +18872,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>37396.78</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>31005.719000000001</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -16320,14 +18893,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -16358,19 +18931,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>6391.0609999999979</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -16774,15 +19347,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>3000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" s="58" customFormat="1">
       <c r="A52" s="34">
@@ -16833,14 +19406,14 @@
         <f t="shared" si="7"/>
         <v>922.80000000000007</v>
       </c>
-      <c r="S53" s="249" t="s">
+      <c r="S53" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="T53" s="250"/>
-      <c r="U53" s="250"/>
-      <c r="V53" s="250"/>
-      <c r="W53" s="250"/>
-      <c r="X53" s="251"/>
+      <c r="T53" s="261"/>
+      <c r="U53" s="261"/>
+      <c r="V53" s="261"/>
+      <c r="W53" s="261"/>
+      <c r="X53" s="262"/>
       <c r="Y53" s="195">
         <v>15600</v>
       </c>
@@ -16863,14 +19436,14 @@
         <f t="shared" si="7"/>
         <v>562.08000000000004</v>
       </c>
-      <c r="S54" s="249" t="s">
+      <c r="S54" s="260" t="s">
         <v>76</v>
       </c>
-      <c r="T54" s="250"/>
-      <c r="U54" s="250"/>
-      <c r="V54" s="250"/>
-      <c r="W54" s="250"/>
-      <c r="X54" s="251"/>
+      <c r="T54" s="261"/>
+      <c r="U54" s="261"/>
+      <c r="V54" s="261"/>
+      <c r="W54" s="261"/>
+      <c r="X54" s="262"/>
       <c r="Y54" s="195">
         <v>18925</v>
       </c>
@@ -16881,14 +19454,14 @@
       <c r="C55" s="58">
         <v>215</v>
       </c>
-      <c r="S55" s="252" t="s">
+      <c r="S55" s="263" t="s">
         <v>74</v>
       </c>
-      <c r="T55" s="252"/>
-      <c r="U55" s="252"/>
-      <c r="V55" s="252"/>
-      <c r="W55" s="252"/>
-      <c r="X55" s="252"/>
+      <c r="T55" s="263"/>
+      <c r="U55" s="263"/>
+      <c r="V55" s="263"/>
+      <c r="W55" s="263"/>
+      <c r="X55" s="263"/>
       <c r="Y55" s="194">
         <f>Y52-(Y53+Y54)</f>
         <v>248834</v>
@@ -16963,11 +19536,11 @@
       <c r="B63" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="228">
+      <c r="C63" s="239">
         <f>C62-E62</f>
         <v>3818.04</v>
       </c>
-      <c r="D63" s="229"/>
+      <c r="D63" s="240"/>
       <c r="E63" s="181"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -17009,7 +19582,7 @@
     <mergeCell ref="S55:X55"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17058,59 +19631,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243344</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -17169,10 +19742,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -17935,15 +20508,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -18426,19 +20999,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>37363.78</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>33204.270000000004</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -18447,14 +21020,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -18485,19 +21058,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>4159.5099999999948</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -18901,15 +21474,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>6000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" s="58" customFormat="1">
       <c r="A52" s="34">
@@ -19066,11 +21639,11 @@
       <c r="B63" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="228">
+      <c r="C63" s="239">
         <f>C62-E62</f>
         <v>3674.25</v>
       </c>
-      <c r="D63" s="229"/>
+      <c r="D63" s="240"/>
       <c r="E63" s="181"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -19094,12 +21667,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -19107,9 +21674,15 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19157,59 +21730,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243374</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -19268,10 +21841,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -20039,15 +22612,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -20530,19 +23103,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>41060.78</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>33111.590000000004</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -20551,14 +23124,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -20589,19 +23162,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>7949.1899999999951</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -20818,7 +23391,7 @@
         <f>C45*B45</f>
         <v>658.56000000000006</v>
       </c>
-      <c r="G45" s="253">
+      <c r="G45" s="264">
         <f>C45+C46+C47+C48</f>
         <v>243.88</v>
       </c>
@@ -20850,7 +23423,7 @@
         <f>C46*B46</f>
         <v>751.68000000000006</v>
       </c>
-      <c r="G46" s="254"/>
+      <c r="G46" s="265"/>
       <c r="S46" s="27">
         <v>10</v>
       </c>
@@ -20879,7 +23452,7 @@
         <f t="shared" ref="F47:F49" si="4">C47*B47</f>
         <v>900</v>
       </c>
-      <c r="G47" s="254"/>
+      <c r="G47" s="265"/>
       <c r="S47" s="27">
         <v>11</v>
       </c>
@@ -20908,7 +23481,7 @@
         <f t="shared" si="4"/>
         <v>616.31999999999994</v>
       </c>
-      <c r="G48" s="254"/>
+      <c r="G48" s="265"/>
       <c r="S48" s="27">
         <v>12</v>
       </c>
@@ -21017,15 +23590,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>9000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" s="58" customFormat="1">
       <c r="A52" s="197">
@@ -21256,11 +23829,11 @@
       <c r="B63" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="228">
+      <c r="C63" s="239">
         <f>C62-E62</f>
         <v>1693.5</v>
       </c>
-      <c r="D63" s="229"/>
+      <c r="D63" s="240"/>
       <c r="E63" s="181"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -21323,12 +23896,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
     <mergeCell ref="C35:D35"/>
@@ -21337,9 +23904,15 @@
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="G45:G48"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21354,7 +23927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4653DF7B-56E5-447B-97E4-63DDA6A9FE60}">
   <dimension ref="A1:AA81"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -21387,59 +23960,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243405</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -21498,10 +24071,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -22281,15 +24854,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -22801,19 +25374,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>43001.78</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>33474.54</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -22822,14 +25395,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -22860,19 +25433,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>9527.239999999998</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -23100,7 +25673,7 @@
         <f>C45*B45</f>
         <v>189.63</v>
       </c>
-      <c r="G45" s="253">
+      <c r="G45" s="264">
         <f>C45+C46+C47+C48</f>
         <v>256.55999999999995</v>
       </c>
@@ -23124,7 +25697,7 @@
       <c r="C46" s="58">
         <v>36.549999999999997</v>
       </c>
-      <c r="G46" s="254"/>
+      <c r="G46" s="265"/>
       <c r="S46" s="27">
         <v>10</v>
       </c>
@@ -23145,7 +25718,7 @@
       <c r="C47" s="58">
         <v>70.83</v>
       </c>
-      <c r="G47" s="254"/>
+      <c r="G47" s="265"/>
       <c r="S47" s="27">
         <v>11</v>
       </c>
@@ -23166,7 +25739,7 @@
       <c r="C48" s="58">
         <v>85.97</v>
       </c>
-      <c r="G48" s="254"/>
+      <c r="G48" s="265"/>
       <c r="S48" s="27">
         <v>12</v>
       </c>
@@ -23257,15 +25830,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>12000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" s="58" customFormat="1">
       <c r="A52" s="34">
@@ -23423,11 +25996,11 @@
       <c r="B63" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="228">
+      <c r="C63" s="239">
         <f>C62-E62</f>
         <v>2187.1799999999998</v>
       </c>
-      <c r="D63" s="229"/>
+      <c r="D63" s="240"/>
       <c r="E63" s="181"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -23552,12 +26125,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="T17:Y17"/>
@@ -23566,9 +26133,15 @@
     <mergeCell ref="S35:X35"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="G45:G48"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23616,59 +26189,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243405</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -23727,10 +26300,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -24494,15 +27067,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -24822,7 +27395,7 @@
         <f>12*24</f>
         <v>288</v>
       </c>
-      <c r="O27" s="258">
+      <c r="O27" s="269">
         <f>K27+K28</f>
         <v>4900</v>
       </c>
@@ -24857,7 +27430,7 @@
       <c r="N28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="259"/>
+      <c r="O28" s="270"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -25026,19 +27599,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>41899</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>32908.050000000003</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -25047,14 +27620,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -25085,19 +27658,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>8990.9499999999971</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -25327,7 +27900,7 @@
         <f>C45*B45</f>
         <v>396.78</v>
       </c>
-      <c r="G45" s="253">
+      <c r="G45" s="264">
         <f>C45+C46+C47+C48</f>
         <v>236.71999999999997</v>
       </c>
@@ -25355,7 +27928,7 @@
       <c r="C46" s="58">
         <v>63.21</v>
       </c>
-      <c r="G46" s="254"/>
+      <c r="G46" s="265"/>
       <c r="S46" s="27">
         <v>10</v>
       </c>
@@ -25376,7 +27949,7 @@
       <c r="C47" s="58">
         <v>36.549999999999997</v>
       </c>
-      <c r="G47" s="254"/>
+      <c r="G47" s="265"/>
       <c r="S47" s="27">
         <v>11</v>
       </c>
@@ -25397,7 +27970,7 @@
       <c r="C48" s="58">
         <v>70.83</v>
       </c>
-      <c r="G48" s="254"/>
+      <c r="G48" s="265"/>
       <c r="S48" s="27">
         <v>12</v>
       </c>
@@ -25488,15 +28061,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>15000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
     </row>
     <row r="52" spans="1:25" s="58" customFormat="1">
       <c r="A52" s="34">
@@ -25672,11 +28245,11 @@
       <c r="B64" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="228">
+      <c r="C64" s="239">
         <f>C63-E63</f>
         <v>2560.06</v>
       </c>
-      <c r="D64" s="229"/>
+      <c r="D64" s="240"/>
       <c r="E64" s="181"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -25684,7 +28257,7 @@
       <c r="R64" s="11"/>
     </row>
     <row r="65" spans="2:18">
-      <c r="B65" s="255" t="s">
+      <c r="B65" s="266" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="28">
@@ -25696,7 +28269,7 @@
       <c r="R65" s="11"/>
     </row>
     <row r="66" spans="2:18">
-      <c r="B66" s="256"/>
+      <c r="B66" s="267"/>
       <c r="C66" s="28">
         <v>153</v>
       </c>
@@ -25706,49 +28279,49 @@
       <c r="R66" s="11"/>
     </row>
     <row r="67" spans="2:18">
-      <c r="B67" s="256"/>
+      <c r="B67" s="267"/>
       <c r="C67" s="28">
         <v>1482</v>
       </c>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="256"/>
+      <c r="B68" s="267"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="256"/>
+      <c r="B69" s="267"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="256"/>
+      <c r="B70" s="267"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="256"/>
+      <c r="B71" s="267"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="256"/>
+      <c r="B72" s="267"/>
     </row>
     <row r="73" spans="2:18">
-      <c r="B73" s="256"/>
+      <c r="B73" s="267"/>
     </row>
     <row r="74" spans="2:18">
-      <c r="B74" s="256"/>
+      <c r="B74" s="267"/>
     </row>
     <row r="75" spans="2:18">
-      <c r="B75" s="256"/>
+      <c r="B75" s="267"/>
     </row>
     <row r="76" spans="2:18">
-      <c r="B76" s="256"/>
+      <c r="B76" s="267"/>
     </row>
     <row r="77" spans="2:18">
-      <c r="B77" s="256"/>
+      <c r="B77" s="267"/>
     </row>
     <row r="78" spans="2:18">
-      <c r="B78" s="256"/>
+      <c r="B78" s="267"/>
     </row>
     <row r="79" spans="2:18">
-      <c r="B79" s="256"/>
+      <c r="B79" s="267"/>
     </row>
     <row r="80" spans="2:18">
-      <c r="B80" s="257"/>
+      <c r="B80" s="268"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="28">
@@ -25758,12 +28331,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="B65:B80"/>
@@ -25774,9 +28341,15 @@
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="O27:O28"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25827,59 +28400,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243466</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -25938,10 +28511,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -26701,15 +29274,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -27002,7 +29575,7 @@
         <f>12*24</f>
         <v>288</v>
       </c>
-      <c r="O27" s="258">
+      <c r="O27" s="269">
         <f>K27+K28</f>
         <v>4900</v>
       </c>
@@ -27037,7 +29610,7 @@
       <c r="N28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="O28" s="259"/>
+      <c r="O28" s="270"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -27201,19 +29774,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
         <v>37835.64</v>
       </c>
-      <c r="D35" s="241"/>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
         <v>25609.920000000002</v>
       </c>
-      <c r="L35" s="243"/>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -27222,14 +29795,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -27260,19 +29833,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
         <v>12225.719999999998</v>
       </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -27493,7 +30066,7 @@
         <f>C45*B45</f>
         <v>268.38</v>
       </c>
-      <c r="G45" s="253">
+      <c r="G45" s="264">
         <f>C45+C46+C47+C48</f>
         <v>381.48999999999995</v>
       </c>
@@ -27525,7 +30098,7 @@
         <f t="shared" ref="F46:F61" si="4">C46*B46</f>
         <v>833.28</v>
       </c>
-      <c r="G46" s="254"/>
+      <c r="G46" s="265"/>
       <c r="S46" s="27">
         <v>10</v>
       </c>
@@ -27554,7 +30127,7 @@
         <f t="shared" si="4"/>
         <v>1106.8799999999999</v>
       </c>
-      <c r="G47" s="254"/>
+      <c r="G47" s="265"/>
       <c r="S47" s="27">
         <v>11</v>
       </c>
@@ -27583,7 +30156,7 @@
         <f t="shared" si="4"/>
         <v>80.400000000000006</v>
       </c>
-      <c r="G48" s="254"/>
+      <c r="G48" s="265"/>
       <c r="S48" s="27">
         <v>12</v>
       </c>
@@ -27695,15 +30268,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>15000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
       <c r="Z51" s="58">
         <v>260000</v>
       </c>
@@ -27729,14 +30302,14 @@
       <c r="K52" s="58">
         <v>882</v>
       </c>
-      <c r="S52" s="261" t="s">
+      <c r="S52" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="T52" s="261"/>
-      <c r="U52" s="261"/>
-      <c r="V52" s="261"/>
-      <c r="W52" s="261"/>
-      <c r="X52" s="261"/>
+      <c r="T52" s="272"/>
+      <c r="U52" s="272"/>
+      <c r="V52" s="272"/>
+      <c r="W52" s="272"/>
+      <c r="X52" s="272"/>
       <c r="Y52" s="194">
         <f>T17-T51</f>
         <v>271359</v>
@@ -27766,14 +30339,14 @@
       <c r="K53" s="58">
         <v>625.9</v>
       </c>
-      <c r="S53" s="260" t="s">
+      <c r="S53" s="271" t="s">
         <v>75</v>
       </c>
-      <c r="T53" s="260"/>
-      <c r="U53" s="260"/>
-      <c r="V53" s="260"/>
-      <c r="W53" s="260"/>
-      <c r="X53" s="260"/>
+      <c r="T53" s="271"/>
+      <c r="U53" s="271"/>
+      <c r="V53" s="271"/>
+      <c r="W53" s="271"/>
+      <c r="X53" s="271"/>
       <c r="Y53" s="58">
         <v>15600</v>
       </c>
@@ -27807,14 +30380,14 @@
       <c r="K54" s="58">
         <v>835</v>
       </c>
-      <c r="S54" s="260" t="s">
+      <c r="S54" s="271" t="s">
         <v>76</v>
       </c>
-      <c r="T54" s="260"/>
-      <c r="U54" s="260"/>
-      <c r="V54" s="260"/>
-      <c r="W54" s="260"/>
-      <c r="X54" s="260"/>
+      <c r="T54" s="271"/>
+      <c r="U54" s="271"/>
+      <c r="V54" s="271"/>
+      <c r="W54" s="271"/>
+      <c r="X54" s="271"/>
       <c r="Y54" s="58">
         <v>18925</v>
       </c>
@@ -27917,7 +30490,7 @@
       <c r="U57" s="58">
         <v>3</v>
       </c>
-      <c r="V57" s="254">
+      <c r="V57" s="265">
         <f>T57+T58+T59</f>
         <v>7497</v>
       </c>
@@ -27946,7 +30519,7 @@
       <c r="T58" s="58">
         <v>2685</v>
       </c>
-      <c r="V58" s="254"/>
+      <c r="V58" s="265"/>
     </row>
     <row r="59" spans="1:27" s="58" customFormat="1">
       <c r="A59" s="34">
@@ -27973,7 +30546,7 @@
       <c r="T59" s="58">
         <v>2634</v>
       </c>
-      <c r="V59" s="254"/>
+      <c r="V59" s="265"/>
       <c r="Y59" s="58" t="s">
         <v>98</v>
       </c>
@@ -28082,7 +30655,7 @@
       <c r="T63" s="58">
         <v>1014</v>
       </c>
-      <c r="V63" s="254">
+      <c r="V63" s="265">
         <f>T63+T64+T65</f>
         <v>4241</v>
       </c>
@@ -28117,7 +30690,7 @@
       <c r="T64" s="136">
         <v>1477</v>
       </c>
-      <c r="V64" s="254"/>
+      <c r="V64" s="265"/>
       <c r="Y64" s="11" t="s">
         <v>100</v>
       </c>
@@ -28149,7 +30722,7 @@
       <c r="T65" s="136">
         <v>1750</v>
       </c>
-      <c r="V65" s="262"/>
+      <c r="V65" s="273"/>
       <c r="Y65" s="150" t="s">
         <v>101</v>
       </c>
@@ -28162,11 +30735,11 @@
       <c r="B66" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="228">
+      <c r="C66" s="239">
         <f>C65-E65</f>
         <v>4158.93</v>
       </c>
-      <c r="D66" s="229"/>
+      <c r="D66" s="240"/>
       <c r="E66" s="181"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -28183,7 +30756,7 @@
       <c r="Y66" s="16"/>
     </row>
     <row r="67" spans="1:27">
-      <c r="B67" s="255" t="s">
+      <c r="B67" s="266" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="28">
@@ -28201,7 +30774,7 @@
       </c>
     </row>
     <row r="68" spans="1:27">
-      <c r="B68" s="256"/>
+      <c r="B68" s="267"/>
       <c r="C68" s="28">
         <v>1005</v>
       </c>
@@ -28217,7 +30790,7 @@
       </c>
     </row>
     <row r="69" spans="1:27">
-      <c r="B69" s="256"/>
+      <c r="B69" s="267"/>
       <c r="C69" s="28">
         <v>90</v>
       </c>
@@ -28229,7 +30802,7 @@
       </c>
     </row>
     <row r="70" spans="1:27">
-      <c r="B70" s="256"/>
+      <c r="B70" s="267"/>
       <c r="C70" s="28">
         <v>99</v>
       </c>
@@ -28245,14 +30818,14 @@
       </c>
     </row>
     <row r="71" spans="1:27">
-      <c r="B71" s="256"/>
+      <c r="B71" s="267"/>
       <c r="C71" s="28">
         <v>105</v>
       </c>
       <c r="Z71" s="136"/>
     </row>
     <row r="72" spans="1:27">
-      <c r="B72" s="256"/>
+      <c r="B72" s="267"/>
       <c r="C72" s="28">
         <v>114</v>
       </c>
@@ -28269,53 +30842,53 @@
       </c>
     </row>
     <row r="73" spans="1:27">
-      <c r="B73" s="256"/>
+      <c r="B73" s="267"/>
       <c r="C73" s="28">
         <v>33</v>
       </c>
       <c r="Z73" s="136"/>
     </row>
     <row r="74" spans="1:27">
-      <c r="B74" s="256"/>
+      <c r="B74" s="267"/>
       <c r="C74" s="28">
         <v>904</v>
       </c>
     </row>
     <row r="75" spans="1:27">
-      <c r="B75" s="256"/>
+      <c r="B75" s="267"/>
       <c r="C75" s="28">
         <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:27">
-      <c r="B76" s="256"/>
+      <c r="B76" s="267"/>
       <c r="C76" s="28">
         <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:27">
-      <c r="B77" s="256"/>
+      <c r="B77" s="267"/>
     </row>
     <row r="78" spans="1:27">
-      <c r="B78" s="256"/>
+      <c r="B78" s="267"/>
       <c r="C78" s="28">
         <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:27">
-      <c r="B79" s="256"/>
+      <c r="B79" s="267"/>
       <c r="C79" s="28">
         <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:27">
-      <c r="B80" s="256"/>
+      <c r="B80" s="267"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="256"/>
+      <c r="B81" s="267"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="257"/>
+      <c r="B82" s="268"/>
     </row>
     <row r="83" spans="2:3">
       <c r="C83" s="28">
@@ -28325,6 +30898,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="G45:G48"/>
     <mergeCell ref="T51:Y51"/>
     <mergeCell ref="C66:D66"/>
@@ -28340,15 +30919,9 @@
     <mergeCell ref="S52:X52"/>
     <mergeCell ref="V57:V59"/>
     <mergeCell ref="V63:V65"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28366,8 +30939,8 @@
   </sheetPr>
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" activeCellId="1" sqref="I15:I16 I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28399,59 +30972,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="21">
-      <c r="A1" s="230">
+      <c r="A1" s="241">
         <v>243497</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="231" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="242"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="232" t="s">
+      <c r="S1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="233"/>
-      <c r="U1" s="233"/>
-      <c r="V1" s="233"/>
-      <c r="W1" s="233"/>
-      <c r="X1" s="234"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="245"/>
     </row>
     <row r="2" spans="1:27" s="4" customFormat="1" ht="18.75">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="I2" s="236" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="I2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
@@ -28510,10 +31083,10 @@
       <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="237" t="s">
+      <c r="M3" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="237"/>
+      <c r="N3" s="248"/>
       <c r="O3" s="14" t="s">
         <v>10</v>
       </c>
@@ -28628,7 +31201,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="30">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="L5" s="31"/>
       <c r="N5" s="24"/>
@@ -28811,18 +31384,11 @@
       <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="17">
-        <v>6</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="35">
+      <c r="E9" s="17"/>
+      <c r="F9" s="24"/>
+      <c r="I9" s="23">
         <v>6</v>
       </c>
       <c r="J9" s="29" t="s">
@@ -28877,7 +31443,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
-      <c r="I10" s="35">
+      <c r="I10" s="23">
         <v>7</v>
       </c>
       <c r="J10" s="49" t="s">
@@ -28926,16 +31492,16 @@
       </c>
       <c r="C11" s="52">
         <f>D11*E11</f>
-        <v>1066.6600000000001</v>
+        <v>4266.6400000000003</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="54"/>
-      <c r="I11" s="34">
+      <c r="I11" s="197">
         <v>8</v>
       </c>
       <c r="J11" s="227" t="s">
@@ -29044,13 +31610,27 @@
         <v>10</v>
       </c>
       <c r="C13" s="58">
-        <v>0</v>
+        <v>3268</v>
       </c>
       <c r="D13"/>
-      <c r="I13" s="34">
+      <c r="I13" s="197">
         <v>10</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="J13" s="191" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="192">
+        <v>322.39999999999998</v>
+      </c>
+      <c r="L13" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="17">
+        <v>1</v>
+      </c>
+      <c r="N13" s="17">
+        <v>10</v>
+      </c>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
@@ -29087,7 +31667,7 @@
       <c r="B14" s="63"/>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
-      <c r="I14" s="34">
+      <c r="I14" s="197">
         <v>11</v>
       </c>
       <c r="J14" s="64" t="s">
@@ -29147,7 +31727,7 @@
       <c r="B15" s="63"/>
       <c r="C15" s="16"/>
       <c r="D15" s="15"/>
-      <c r="I15" s="34">
+      <c r="I15" s="197">
         <v>12</v>
       </c>
       <c r="J15" s="64" t="s">
@@ -29198,7 +31778,7 @@
       <c r="B16" s="63"/>
       <c r="C16" s="75"/>
       <c r="D16" s="76"/>
-      <c r="I16" s="34">
+      <c r="I16" s="197">
         <v>13</v>
       </c>
       <c r="J16" s="77" t="s">
@@ -29206,7 +31786,7 @@
       </c>
       <c r="K16" s="78">
         <f>C65</f>
-        <v>1585.55</v>
+        <v>5029.55</v>
       </c>
       <c r="L16" s="79"/>
       <c r="O16" s="16"/>
@@ -29234,7 +31814,7 @@
       <c r="B17" s="63"/>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
-      <c r="I17" s="34">
+      <c r="I17" s="197">
         <v>14</v>
       </c>
       <c r="J17" s="81" t="s">
@@ -29267,15 +31847,15 @@
       <c r="S17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="238">
+      <c r="T17" s="249">
         <f>T15+U15+V15+W15+X15+T16+U16+V16+W16+X16+Y15+Y16</f>
         <v>286359</v>
       </c>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="239"/>
-      <c r="Y17" s="240"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="251"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="17">
@@ -29284,7 +31864,7 @@
       <c r="B18" s="63"/>
       <c r="C18" s="75"/>
       <c r="D18" s="76"/>
-      <c r="I18" s="34">
+      <c r="I18" s="197">
         <v>15</v>
       </c>
       <c r="J18" s="86" t="s">
@@ -29292,7 +31872,7 @@
       </c>
       <c r="K18" s="87">
         <f>R18</f>
-        <v>3371.94</v>
+        <v>3449.0894999999996</v>
       </c>
       <c r="L18" s="88" t="s">
         <v>42</v>
@@ -29300,16 +31880,18 @@
       <c r="M18" s="89"/>
       <c r="N18" s="89"/>
       <c r="O18" s="90">
-        <v>112398</v>
-      </c>
-      <c r="P18" s="30"/>
+        <v>114969.65</v>
+      </c>
+      <c r="P18" s="30">
+        <v>0</v>
+      </c>
       <c r="Q18" s="67">
-        <f>O18-P18</f>
-        <v>112398</v>
+        <f>O18+P18</f>
+        <v>114969.65</v>
       </c>
       <c r="R18" s="68">
         <f>Q18*0.03</f>
-        <v>3371.94</v>
+        <v>3449.0894999999996</v>
       </c>
       <c r="S18" s="91"/>
       <c r="T18" s="92"/>
@@ -29322,7 +31904,7 @@
       <c r="B19" s="93"/>
       <c r="C19" s="58"/>
       <c r="D19" s="15"/>
-      <c r="I19" s="34">
+      <c r="I19" s="197">
         <v>16</v>
       </c>
       <c r="J19" s="77" t="b">
@@ -29346,7 +31928,7 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="16"/>
-      <c r="I20" s="34">
+      <c r="I20" s="197">
         <v>17</v>
       </c>
       <c r="J20" s="94" t="s">
@@ -29372,9 +31954,29 @@
       <c r="I21" s="34">
         <v>18</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="75"/>
+      <c r="J21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="16">
+        <f>2940</f>
+        <v>2940</v>
+      </c>
+      <c r="L21" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="15">
+        <v>16</v>
+      </c>
+      <c r="N21" s="15">
+        <v>60</v>
+      </c>
+      <c r="O21" s="16">
+        <v>84154.9</v>
+      </c>
+      <c r="P21" s="75">
+        <f>K21/2</f>
+        <v>1470</v>
+      </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="91"/>
@@ -29386,7 +31988,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="I22" s="34">
+      <c r="I22" s="197">
         <v>19</v>
       </c>
       <c r="J22" s="99" t="s">
@@ -29414,15 +32016,28 @@
       </c>
       <c r="C23" s="16"/>
       <c r="F23" s="28"/>
-      <c r="I23" s="34">
+      <c r="I23" s="197">
         <v>20</v>
       </c>
-      <c r="J23" s="226"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="16"/>
+      <c r="J23" s="191" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="200">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="L23" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="114">
+        <v>4</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="16">
+        <f>625.9*(N23+1-M23)</f>
+        <v>4381.3</v>
+      </c>
       <c r="P23" s="224"/>
       <c r="Q23" s="40"/>
       <c r="R23" s="225"/>
@@ -29436,28 +32051,19 @@
       </c>
       <c r="C24" s="16"/>
       <c r="F24" s="107"/>
-      <c r="I24" s="34">
+      <c r="I24" s="197">
         <v>21</v>
       </c>
-      <c r="J24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="16">
-        <f>2940</f>
-        <v>2940</v>
-      </c>
-      <c r="L24" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="15">
-        <v>16</v>
-      </c>
-      <c r="N24" s="15">
-        <v>60</v>
-      </c>
-      <c r="O24" s="16">
-        <v>84154.9</v>
-      </c>
+      <c r="J24" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="74">
+        <v>220</v>
+      </c>
+      <c r="L24" s="229"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="108"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="109"/>
@@ -29472,22 +32078,29 @@
       <c r="C25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="I25" s="34">
+      <c r="I25" s="197">
         <v>22</v>
       </c>
-      <c r="J25" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="111">
-        <v>0</v>
-      </c>
-      <c r="L25" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="113"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="16">
-        <v>5019.97</v>
+      <c r="J25" s="230" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="231">
+        <f>5350-1470-300</f>
+        <v>3580</v>
+      </c>
+      <c r="L25" s="232" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="17">
+        <v>7</v>
+      </c>
+      <c r="N25" s="17">
+        <f>12*24</f>
+        <v>288</v>
+      </c>
+      <c r="O25" s="269">
+        <f>K25+K26</f>
+        <v>4980</v>
       </c>
       <c r="P25" s="30">
         <v>0</v>
@@ -29495,7 +32108,7 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16">
         <f>O25*0.05</f>
-        <v>250.99850000000004</v>
+        <v>249</v>
       </c>
       <c r="S25" s="91"/>
       <c r="T25" s="92"/>
@@ -29508,32 +32121,24 @@
       <c r="C26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="I26" s="34">
+      <c r="I26" s="197">
         <v>23</v>
       </c>
-      <c r="J26" s="191" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="192">
-        <f>882</f>
-        <v>882</v>
-      </c>
-      <c r="L26" s="112" t="s">
-        <v>49</v>
-      </c>
+      <c r="J26" s="230" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="231">
+        <v>1400</v>
+      </c>
+      <c r="L26" s="232"/>
       <c r="M26" s="17">
-        <v>7</v>
-      </c>
-      <c r="N26" s="17">
-        <v>10</v>
-      </c>
-      <c r="O26" s="16">
-        <f>(K26)*(N26+1-M26)</f>
-        <v>3528</v>
-      </c>
-      <c r="P26" s="30">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="270"/>
+      <c r="P26" s="30"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
       <c r="S26" s="91"/>
@@ -29549,31 +32154,25 @@
       <c r="C27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
-      <c r="I27" s="34">
+      <c r="I27" s="197">
         <v>24</v>
       </c>
-      <c r="J27" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="16">
-        <f>5000-1500</f>
-        <v>3500</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="17">
-        <v>7</v>
-      </c>
-      <c r="N27" s="17">
-        <f>12*24</f>
-        <v>288</v>
-      </c>
-      <c r="O27" s="258">
-        <f>K27+K28</f>
-        <v>4900</v>
-      </c>
-      <c r="P27" s="16"/>
+      <c r="J27" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="50">
+        <f>P27/2</f>
+        <v>350</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" s="233">
+        <v>20000</v>
+      </c>
+      <c r="P27" s="16">
+        <v>700</v>
+      </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
       <c r="S27" s="91"/>
@@ -29592,19 +32191,9 @@
       <c r="I28" s="34">
         <v>25</v>
       </c>
-      <c r="J28" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="16">
-        <v>1400</v>
-      </c>
-      <c r="M28" s="17">
-        <v>6</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="O28" s="259"/>
+      <c r="K28" s="16"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="234"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -29624,28 +32213,9 @@
       <c r="I29" s="34">
         <v>26</v>
       </c>
-      <c r="J29" s="191" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="196">
-        <v>950.3</v>
-      </c>
-      <c r="L29" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="17">
-        <v>6</v>
-      </c>
-      <c r="N29" s="17">
-        <v>10</v>
-      </c>
-      <c r="O29" s="16">
-        <f>K29*(N29+1-M29)</f>
-        <v>4751.5</v>
-      </c>
-      <c r="P29" s="203">
-        <v>0</v>
-      </c>
+      <c r="K29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="203"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
       <c r="S29" s="91"/>
@@ -29664,25 +32234,10 @@
       <c r="I30" s="34">
         <v>27</v>
       </c>
-      <c r="J30" s="191" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="200">
-        <v>325.89999999999998</v>
-      </c>
-      <c r="L30" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="M30" s="114">
-        <v>4</v>
-      </c>
-      <c r="N30" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="O30" s="16">
-        <f>625.9*(N30+1-M30)</f>
-        <v>4381.3</v>
-      </c>
+      <c r="K30" s="16"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="16"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="40"/>
       <c r="R30" s="40"/>
@@ -29702,12 +32257,7 @@
       <c r="I31" s="34">
         <v>28</v>
       </c>
-      <c r="J31" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="16">
-        <v>220</v>
-      </c>
+      <c r="K31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
       <c r="Q31" s="40" t="s">
@@ -29727,12 +32277,7 @@
       <c r="I32" s="34">
         <v>29</v>
       </c>
-      <c r="J32" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K32" s="16">
-        <v>0</v>
-      </c>
+      <c r="K32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="40"/>
@@ -29747,7 +32292,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="117"/>
-      <c r="K33" s="118"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="117"/>
       <c r="M33" s="119"/>
       <c r="N33" s="120"/>
@@ -29775,19 +32320,19 @@
       <c r="B35" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="241">
+      <c r="C35" s="252">
         <f>C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21</f>
-        <v>34635.660000000003</v>
-      </c>
-      <c r="D35" s="241"/>
+        <v>41103.64</v>
+      </c>
+      <c r="D35" s="252"/>
       <c r="J35" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="242">
+      <c r="K35" s="253">
         <f>SUM(K4:K34)</f>
-        <v>22586.890000000003</v>
-      </c>
-      <c r="L35" s="243"/>
+        <v>25098.139500000001</v>
+      </c>
+      <c r="L35" s="254"/>
       <c r="N35" s="24"/>
       <c r="O35" s="16"/>
       <c r="P35" s="30">
@@ -29796,14 +32341,14 @@
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
-      <c r="S35" s="232" t="s">
+      <c r="S35" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="234"/>
+      <c r="T35" s="244"/>
+      <c r="U35" s="244"/>
+      <c r="V35" s="244"/>
+      <c r="W35" s="244"/>
+      <c r="X35" s="245"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="18.75">
@@ -29834,19 +32379,19 @@
       <c r="B37" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="244">
+      <c r="C37" s="255">
         <f>C35-K35</f>
-        <v>12048.77</v>
-      </c>
-      <c r="D37" s="245"/>
-      <c r="E37" s="245"/>
-      <c r="F37" s="245"/>
-      <c r="G37" s="245"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="245"/>
-      <c r="J37" s="245"/>
-      <c r="K37" s="245"/>
-      <c r="L37" s="246"/>
+        <v>16005.500499999998</v>
+      </c>
+      <c r="D37" s="256"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="257"/>
       <c r="M37" s="127"/>
       <c r="N37" s="24"/>
       <c r="O37" s="92"/>
@@ -29866,7 +32411,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="129">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="D38" s="130"/>
       <c r="E38" s="131"/>
@@ -29877,7 +32422,7 @@
       <c r="N38" s="24"/>
       <c r="O38" s="16">
         <f>K17+K18+K23+1000</f>
-        <v>6511.9400000000005</v>
+        <v>6914.9894999999997</v>
       </c>
       <c r="Q38" s="125" t="s">
         <v>55</v>
@@ -29962,7 +32507,7 @@
       </c>
       <c r="C41" s="142">
         <f>(C38+C40)-C39</f>
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="D41" s="137"/>
       <c r="E41" s="92"/>
@@ -29990,8 +32535,13 @@
       <c r="D42" s="92"/>
       <c r="E42" s="92"/>
       <c r="J42" s="143"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="40"/>
+      <c r="K42" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L42" s="40">
+        <f>2435.67*2</f>
+        <v>4871.34</v>
+      </c>
       <c r="N42" s="24"/>
       <c r="Q42" s="15"/>
       <c r="S42" s="27">
@@ -30011,7 +32561,10 @@
       <c r="C43" s="92"/>
       <c r="D43" s="92"/>
       <c r="E43" s="92"/>
-      <c r="L43" s="125"/>
+      <c r="L43" s="228">
+        <f>P35</f>
+        <v>0</v>
+      </c>
       <c r="Q43" s="15"/>
       <c r="S43" s="27">
         <v>7</v>
@@ -30037,7 +32590,10 @@
       <c r="F44" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L44" s="125"/>
+      <c r="L44" s="228">
+        <f>SUM(L42:L43)</f>
+        <v>4871.34</v>
+      </c>
       <c r="Q44" s="15"/>
       <c r="S44" s="27">
         <v>8</v>
@@ -30067,7 +32623,7 @@
         <f>C45*B45</f>
         <v>268.38</v>
       </c>
-      <c r="G45" s="253">
+      <c r="G45" s="264">
         <f>C45+C46+C47+C48</f>
         <v>381.48999999999995</v>
       </c>
@@ -30099,7 +32655,7 @@
         <f t="shared" ref="F46:F62" si="4">C46*B46</f>
         <v>833.28</v>
       </c>
-      <c r="G46" s="254"/>
+      <c r="G46" s="265"/>
       <c r="S46" s="27">
         <v>10</v>
       </c>
@@ -30128,7 +32684,7 @@
         <f t="shared" si="4"/>
         <v>1106.8799999999999</v>
       </c>
-      <c r="G47" s="254"/>
+      <c r="G47" s="265"/>
       <c r="S47" s="27">
         <v>11</v>
       </c>
@@ -30157,7 +32713,7 @@
         <f t="shared" si="4"/>
         <v>80.400000000000006</v>
       </c>
-      <c r="G48" s="254"/>
+      <c r="G48" s="265"/>
       <c r="S48" s="27">
         <v>12</v>
       </c>
@@ -30273,15 +32829,15 @@
       <c r="S51" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="238">
+      <c r="T51" s="249">
         <f>T49+U49+V49+W49+X49+T50+U50+V50+W50+X50+Y49+Y50</f>
         <v>15000</v>
       </c>
-      <c r="U51" s="239"/>
-      <c r="V51" s="239"/>
-      <c r="W51" s="239"/>
-      <c r="X51" s="239"/>
-      <c r="Y51" s="240"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
+      <c r="X51" s="250"/>
+      <c r="Y51" s="251"/>
       <c r="Z51" s="58">
         <v>260000</v>
       </c>
@@ -30311,14 +32867,14 @@
         <f>K56</f>
         <v>950.3</v>
       </c>
-      <c r="S52" s="261" t="s">
+      <c r="S52" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="T52" s="261"/>
-      <c r="U52" s="261"/>
-      <c r="V52" s="261"/>
-      <c r="W52" s="261"/>
-      <c r="X52" s="261"/>
+      <c r="T52" s="272"/>
+      <c r="U52" s="272"/>
+      <c r="V52" s="272"/>
+      <c r="W52" s="272"/>
+      <c r="X52" s="272"/>
       <c r="Y52" s="194">
         <f>T17-T51</f>
         <v>271359</v>
@@ -30352,14 +32908,14 @@
         <f>K52</f>
         <v>882</v>
       </c>
-      <c r="S53" s="260" t="s">
+      <c r="S53" s="271" t="s">
         <v>75</v>
       </c>
-      <c r="T53" s="260"/>
-      <c r="U53" s="260"/>
-      <c r="V53" s="260"/>
-      <c r="W53" s="260"/>
-      <c r="X53" s="260"/>
+      <c r="T53" s="271"/>
+      <c r="U53" s="271"/>
+      <c r="V53" s="271"/>
+      <c r="W53" s="271"/>
+      <c r="X53" s="271"/>
       <c r="Y53" s="58">
         <v>15600</v>
       </c>
@@ -30393,14 +32949,14 @@
       <c r="K54" s="58">
         <v>835</v>
       </c>
-      <c r="S54" s="260" t="s">
+      <c r="S54" s="271" t="s">
         <v>76</v>
       </c>
-      <c r="T54" s="260"/>
-      <c r="U54" s="260"/>
-      <c r="V54" s="260"/>
-      <c r="W54" s="260"/>
-      <c r="X54" s="260"/>
+      <c r="T54" s="271"/>
+      <c r="U54" s="271"/>
+      <c r="V54" s="271"/>
+      <c r="W54" s="271"/>
+      <c r="X54" s="271"/>
       <c r="Y54" s="58">
         <v>18925</v>
       </c>
@@ -30503,7 +33059,7 @@
       <c r="U57" s="58">
         <v>3</v>
       </c>
-      <c r="V57" s="254">
+      <c r="V57" s="265">
         <f>T57+T58+T59</f>
         <v>7497</v>
       </c>
@@ -30532,7 +33088,7 @@
       <c r="T58" s="58">
         <v>2685</v>
       </c>
-      <c r="V58" s="254"/>
+      <c r="V58" s="265"/>
     </row>
     <row r="59" spans="1:27" s="58" customFormat="1">
       <c r="A59" s="34">
@@ -30559,7 +33115,7 @@
       <c r="T59" s="58">
         <v>2634</v>
       </c>
-      <c r="V59" s="254"/>
+      <c r="V59" s="265"/>
       <c r="Y59" s="58" t="s">
         <v>98</v>
       </c>
@@ -30585,6 +33141,10 @@
         <f t="shared" si="4"/>
         <v>751.68000000000006</v>
       </c>
+      <c r="O60" s="58">
+        <f>793/2</f>
+        <v>396.5</v>
+      </c>
       <c r="S60" s="215" t="s">
         <v>94</v>
       </c>
@@ -30637,7 +33197,7 @@
       <c r="T61" s="58">
         <v>1014</v>
       </c>
-      <c r="V61" s="254">
+      <c r="V61" s="265">
         <f>T61+T62+T63</f>
         <v>4241</v>
       </c>
@@ -30682,7 +33242,7 @@
       <c r="T62" s="136">
         <v>1477</v>
       </c>
-      <c r="V62" s="254"/>
+      <c r="V62" s="265"/>
       <c r="Y62" s="11" t="s">
         <v>100</v>
       </c>
@@ -30698,7 +33258,7 @@
       </c>
       <c r="C63" s="58">
         <f>C83</f>
-        <v>411</v>
+        <v>3855</v>
       </c>
       <c r="D63" s="58"/>
       <c r="E63" s="58"/>
@@ -30714,7 +33274,7 @@
       <c r="T63" s="136">
         <v>1750</v>
       </c>
-      <c r="V63" s="262"/>
+      <c r="V63" s="273"/>
       <c r="Y63" s="150" t="s">
         <v>101</v>
       </c>
@@ -30754,7 +33314,7 @@
       </c>
       <c r="C65" s="179">
         <f>SUM(C45:C64)</f>
-        <v>1585.55</v>
+        <v>5029.55</v>
       </c>
       <c r="E65" s="74">
         <f>SUM(E47:E64)</f>
@@ -30775,11 +33335,11 @@
       <c r="B66" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="228">
+      <c r="C66" s="239">
         <f>C65-E65</f>
-        <v>1585.55</v>
-      </c>
-      <c r="D66" s="229"/>
+        <v>5029.55</v>
+      </c>
+      <c r="D66" s="240"/>
       <c r="E66" s="181"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -30793,7 +33353,7 @@
       </c>
     </row>
     <row r="67" spans="1:27">
-      <c r="B67" s="255" t="s">
+      <c r="B67" s="266" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="28">
@@ -30807,7 +33367,10 @@
       </c>
     </row>
     <row r="68" spans="1:27">
-      <c r="B68" s="256"/>
+      <c r="B68" s="267"/>
+      <c r="C68" s="28">
+        <v>18</v>
+      </c>
       <c r="Y68" s="11" t="s">
         <v>105</v>
       </c>
@@ -30820,11 +33383,17 @@
       </c>
     </row>
     <row r="69" spans="1:27">
-      <c r="B69" s="256"/>
+      <c r="B69" s="267"/>
+      <c r="C69" s="28">
+        <v>24</v>
+      </c>
       <c r="Z69" s="136"/>
     </row>
     <row r="70" spans="1:27">
-      <c r="B70" s="256"/>
+      <c r="B70" s="267"/>
+      <c r="C70" s="28">
+        <v>134</v>
+      </c>
       <c r="Y70" s="11" t="s">
         <v>12</v>
       </c>
@@ -30838,50 +33407,65 @@
       </c>
     </row>
     <row r="71" spans="1:27">
-      <c r="B71" s="256"/>
+      <c r="B71" s="267"/>
+      <c r="C71" s="28">
+        <v>3268</v>
+      </c>
       <c r="Z71" s="136"/>
     </row>
     <row r="72" spans="1:27">
-      <c r="B72" s="256"/>
+      <c r="B72" s="267"/>
     </row>
     <row r="73" spans="1:27">
-      <c r="B73" s="256"/>
+      <c r="B73" s="267"/>
     </row>
     <row r="74" spans="1:27">
-      <c r="B74" s="256"/>
+      <c r="B74" s="267"/>
     </row>
     <row r="75" spans="1:27">
-      <c r="B75" s="256"/>
+      <c r="B75" s="267"/>
     </row>
     <row r="76" spans="1:27">
-      <c r="B76" s="256"/>
+      <c r="B76" s="267"/>
     </row>
     <row r="77" spans="1:27">
-      <c r="B77" s="256"/>
+      <c r="B77" s="267"/>
     </row>
     <row r="78" spans="1:27">
-      <c r="B78" s="256"/>
+      <c r="B78" s="267"/>
     </row>
     <row r="79" spans="1:27">
-      <c r="B79" s="256"/>
+      <c r="B79" s="267"/>
     </row>
     <row r="80" spans="1:27">
-      <c r="B80" s="256"/>
+      <c r="B80" s="267"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="256"/>
+      <c r="B81" s="267"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="257"/>
+      <c r="B82" s="268"/>
     </row>
     <row r="83" spans="2:3">
       <c r="C83" s="28">
         <f>SUM(C67:C82)</f>
-        <v>411</v>
+        <v>3855</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="O25:O26"/>
     <mergeCell ref="V61:V63"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="B67:B82"/>
@@ -30891,27 +33475,11 @@
     <mergeCell ref="S53:X53"/>
     <mergeCell ref="S54:X54"/>
     <mergeCell ref="V57:V59"/>
-    <mergeCell ref="C37:L37"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="S35:X35"/>
   </mergeCells>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>$O$10</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="Q40" r:id="rId1" xr:uid="{0B5F24D7-5F2D-4937-9E22-18EF8F0EEB64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>